--- a/teaching/traditional_assets/database/data/egypt/egypt_machinery.xlsx
+++ b/teaching/traditional_assets/database/data/egypt/egypt_machinery.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="case_arva" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,46 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09050000000000001</v>
+        <v>0.00553</v>
       </c>
       <c r="E2">
-        <v>0.0736</v>
+        <v>0.0212</v>
       </c>
       <c r="G2">
-        <v>0.1288505747126437</v>
+        <v>0.2058333333333333</v>
       </c>
       <c r="H2">
-        <v>0.1288505747126437</v>
+        <v>0.2058333333333333</v>
       </c>
       <c r="I2">
-        <v>0.132183908045977</v>
+        <v>0.1094444444444444</v>
       </c>
       <c r="J2">
-        <v>0.09950276212425578</v>
+        <v>0.08594957729468598</v>
       </c>
       <c r="K2">
-        <v>0.905</v>
+        <v>0.288</v>
       </c>
       <c r="L2">
-        <v>0.1040229885057471</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="M2">
-        <v>0.064</v>
+        <v>0.054</v>
       </c>
       <c r="N2">
-        <v>0.008247422680412371</v>
+        <v>0.004821428571428572</v>
       </c>
       <c r="O2">
-        <v>0.0707182320441989</v>
+        <v>0.1875</v>
       </c>
       <c r="P2">
-        <v>0.064</v>
+        <v>0.054</v>
       </c>
       <c r="Q2">
-        <v>0.008247422680412371</v>
+        <v>0.004821428571428572</v>
       </c>
       <c r="R2">
-        <v>0.0707182320441989</v>
+        <v>0.1875</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +641,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.702</v>
+        <v>0.201</v>
       </c>
       <c r="V2">
-        <v>0.09046391752577319</v>
+        <v>0.01794642857142857</v>
       </c>
       <c r="W2">
-        <v>0.1049753710686341</v>
+        <v>0.05052631578947368</v>
       </c>
       <c r="X2">
-        <v>0.1463994398162325</v>
+        <v>0.1239395330901233</v>
       </c>
       <c r="Y2">
-        <v>-0.04142406874759846</v>
+        <v>-0.07341321730064962</v>
       </c>
       <c r="Z2">
-        <v>1.169669265931702</v>
+        <v>0.6665432327346787</v>
       </c>
       <c r="AA2">
-        <v>0.1172708666483012</v>
+        <v>0.05728910910217914</v>
       </c>
       <c r="AB2">
-        <v>0.1435646543919724</v>
+        <v>0.118976061407025</v>
       </c>
       <c r="AC2">
-        <v>-0.0262937877436712</v>
+        <v>-0.06168695230484589</v>
       </c>
       <c r="AD2">
-        <v>0.345</v>
+        <v>0.907</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.345</v>
+        <v>0.907</v>
       </c>
       <c r="AG2">
-        <v>-0.357</v>
+        <v>0.706</v>
       </c>
       <c r="AH2">
-        <v>0.04256631708821714</v>
+        <v>0.07491533823407946</v>
       </c>
       <c r="AI2">
-        <v>0.03234880450070323</v>
+        <v>0.1301851586048514</v>
       </c>
       <c r="AJ2">
-        <v>-0.04822369309739295</v>
+        <v>0.05929783302536536</v>
       </c>
       <c r="AK2">
-        <v>-0.0358325805480277</v>
+        <v>0.1043452556902158</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="AM2">
-        <v>-0.065</v>
+        <v>0.031</v>
       </c>
       <c r="AN2">
-        <v>0.2422752808988764</v>
+        <v>1.54778156996587</v>
+      </c>
+      <c r="AO2">
+        <v>9.162790697674419</v>
       </c>
       <c r="AP2">
-        <v>-0.2507022471910113</v>
+        <v>1.204778156996587</v>
       </c>
       <c r="AQ2">
-        <v>-17.69230769230769</v>
+        <v>12.70967741935484</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +718,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arab Engineering Industries (CASE:EEII)</t>
+          <t>Arab Valves Company (CASE:ARVA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,46 +727,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.143</v>
+        <v>0.00553</v>
       </c>
       <c r="E3">
-        <v>0.04019999999999999</v>
+        <v>0.0212</v>
       </c>
       <c r="G3">
-        <v>0.1195180722891566</v>
+        <v>0.2058333333333333</v>
       </c>
       <c r="H3">
-        <v>0.1195180722891566</v>
+        <v>0.2058333333333333</v>
       </c>
       <c r="I3">
-        <v>0.124578313253012</v>
+        <v>0.1094444444444444</v>
       </c>
       <c r="J3">
-        <v>0.09308639763515027</v>
+        <v>0.08594957729468598</v>
       </c>
       <c r="K3">
-        <v>0.402</v>
+        <v>0.288</v>
       </c>
       <c r="L3">
-        <v>0.09686746987951807</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="M3">
-        <v>0.064</v>
+        <v>0.054</v>
       </c>
       <c r="N3">
-        <v>0.01327800829875519</v>
+        <v>0.004821428571428572</v>
       </c>
       <c r="O3">
-        <v>0.1592039800995025</v>
+        <v>0.1875</v>
       </c>
       <c r="P3">
-        <v>0.064</v>
+        <v>0.054</v>
       </c>
       <c r="Q3">
-        <v>0.01327800829875519</v>
+        <v>0.004821428571428572</v>
       </c>
       <c r="R3">
-        <v>0.1592039800995025</v>
+        <v>0.1875</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,198 +775,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.402</v>
+        <v>0.201</v>
       </c>
       <c r="V3">
-        <v>0.08340248962655601</v>
+        <v>0.01794642857142857</v>
       </c>
       <c r="W3">
-        <v>0.1036082474226804</v>
+        <v>0.05052631578947368</v>
       </c>
       <c r="X3">
-        <v>0.1498057977767308</v>
+        <v>0.1239395330901233</v>
       </c>
       <c r="Y3">
-        <v>-0.04619755035405036</v>
+        <v>-0.07341321730064962</v>
       </c>
       <c r="Z3">
-        <v>1.316206787186806</v>
+        <v>0.6665432327346787</v>
       </c>
       <c r="AA3">
-        <v>0.1225209483621547</v>
+        <v>0.05728910910217914</v>
       </c>
       <c r="AB3">
-        <v>0.1441637105048251</v>
+        <v>0.118976061407025</v>
       </c>
       <c r="AC3">
-        <v>-0.02164276214267045</v>
+        <v>-0.06168695230484589</v>
       </c>
       <c r="AD3">
-        <v>0.344</v>
+        <v>0.907</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.344</v>
+        <v>0.907</v>
       </c>
       <c r="AG3">
-        <v>-0.05800000000000005</v>
+        <v>0.706</v>
       </c>
       <c r="AH3">
-        <v>0.06661502711076683</v>
+        <v>0.07491533823407946</v>
       </c>
       <c r="AI3">
-        <v>0.06929895245769539</v>
+        <v>0.1301851586048514</v>
       </c>
       <c r="AJ3">
-        <v>-0.01217975640487191</v>
+        <v>0.05929783302536536</v>
       </c>
       <c r="AK3">
-        <v>-0.01271372205173171</v>
+        <v>0.1043452556902158</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.043</v>
       </c>
       <c r="AM3">
-        <v>-0.055</v>
+        <v>0.031</v>
       </c>
       <c r="AN3">
-        <v>0.576214405360134</v>
+        <v>1.54778156996587</v>
+      </c>
+      <c r="AO3">
+        <v>9.162790697674419</v>
       </c>
       <c r="AP3">
-        <v>-0.09715242881072036</v>
+        <v>1.204778156996587</v>
       </c>
       <c r="AQ3">
-        <v>-9.4</v>
+        <v>12.70967741935484</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Arab Valves Company (CASE:ARVA)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CASE:ARVA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Machinery</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0749153382340795</v>
+      </c>
+      <c r="F2">
+        <v>0.31</v>
+      </c>
+      <c r="G2">
+        <v>11.2</v>
+      </c>
+      <c r="H2">
+        <v>9.13880484310376</v>
+      </c>
+      <c r="I2">
+        <v>11.906</v>
+      </c>
+      <c r="J2">
+        <v>12.6909748431038</v>
+      </c>
+      <c r="K2">
+        <v>0.907</v>
+      </c>
+      <c r="L2">
+        <v>3.75317</v>
+      </c>
+      <c r="M2">
+        <v>0.118976061407025</v>
+      </c>
+      <c r="N2">
+        <v>0.112192268187074</v>
+      </c>
+      <c r="O2">
+        <v>0.0576851211085679</v>
+      </c>
+      <c r="P2">
+        <v>0.017515</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.123939533090123</v>
+      </c>
+      <c r="T2">
+        <v>0.15472843215518</v>
+      </c>
+      <c r="U2">
+        <v>1.14072143465138</v>
+      </c>
+      <c r="V2">
+        <v>1.44708657908386</v>
+      </c>
+      <c r="W2">
+        <v>4.645040943678031</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>11.2</v>
+      </c>
+      <c r="AB2">
+        <v>0.10049739542692</v>
+      </c>
+      <c r="AC2">
+        <v>0.07443241433363595</v>
+      </c>
+      <c r="AD2">
+        <v>0.225</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.586</v>
+      </c>
+      <c r="AH2">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>0.4579999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.907</v>
+      </c>
+      <c r="AK2">
+        <v>0.907</v>
+      </c>
+      <c r="AL2">
+        <v>0.043</v>
+      </c>
+      <c r="AM2">
+        <v>0.9069999999999999</v>
+      </c>
+      <c r="AN2">
+        <v>0.201</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1171695169976607</v>
+      </c>
+      <c r="C2">
+        <v>12.3063956989569</v>
+      </c>
+      <c r="D2">
+        <v>12.1053956989569</v>
+      </c>
+      <c r="E2">
+        <v>-0.907</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.201</v>
+      </c>
+      <c r="H2">
+        <v>11.2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.586</v>
+      </c>
+      <c r="K2">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.394</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.394</v>
+      </c>
+      <c r="O2">
+        <v>0.08865000000000001</v>
+      </c>
+      <c r="P2">
+        <v>0.30535</v>
+      </c>
+      <c r="Q2">
+        <v>0.49735</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.1171695169976607</v>
+      </c>
+      <c r="T2">
+        <v>1.073356344603992</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.225</v>
+      </c>
+      <c r="W2">
+        <v>0.012555</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.116959360584416</v>
+      </c>
+      <c r="C3">
+        <v>12.20895603195527</v>
+      </c>
+      <c r="D3">
+        <v>12.12902603195526</v>
+      </c>
+      <c r="E3">
+        <v>-0.78593</v>
+      </c>
+      <c r="F3">
+        <v>0.12107</v>
+      </c>
+      <c r="G3">
+        <v>0.201</v>
+      </c>
+      <c r="H3">
+        <v>11.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.586</v>
+      </c>
+      <c r="K3">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0.394</v>
+      </c>
+      <c r="M3">
+        <v>0.001961334</v>
+      </c>
+      <c r="N3">
+        <v>0.392038666</v>
+      </c>
+      <c r="O3">
+        <v>0.08820869985000002</v>
+      </c>
+      <c r="P3">
+        <v>0.30382996615</v>
+      </c>
+      <c r="Q3">
+        <v>0.49582996615</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.1180139500852687</v>
+      </c>
+      <c r="T3">
+        <v>1.081758881645084</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.225</v>
+      </c>
+      <c r="W3">
+        <v>0.012555</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>200.8836842679524</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Egypt</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Arab Valves Company (CASE:ARVA)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Machinery</t>
-        </is>
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.1167492041711712</v>
+      </c>
+      <c r="C4">
+        <v>12.11160880055732</v>
       </c>
       <c r="D4">
-        <v>0.038</v>
+        <v>12.15274880055732</v>
       </c>
       <c r="E4">
-        <v>0.107</v>
+        <v>-0.66486</v>
+      </c>
+      <c r="F4">
+        <v>0.24214</v>
       </c>
       <c r="G4">
-        <v>0.1373626373626374</v>
+        <v>0.201</v>
       </c>
       <c r="H4">
-        <v>0.1373626373626374</v>
+        <v>11.2</v>
       </c>
       <c r="I4">
-        <v>0.1391208791208791</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1054964974602437</v>
+        <v>0.586</v>
       </c>
       <c r="K4">
-        <v>0.503</v>
+        <v>0.1919999999999999</v>
       </c>
       <c r="L4">
-        <v>0.1105494505494505</v>
+        <v>0.394</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>0.003922668</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.390077332</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0.0877673997</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>0.3023099323</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.4943099323</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.1188756165011951</v>
+      </c>
+      <c r="T4">
+        <v>1.090332899033953</v>
       </c>
       <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.225</v>
+      </c>
+      <c r="W4">
+        <v>0.012555</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>100.4418421339762</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.1165390477579265</v>
+      </c>
+      <c r="C5">
+        <v>12.01435454820136</v>
+      </c>
+      <c r="D5">
+        <v>12.17656454820136</v>
+      </c>
+      <c r="E5">
+        <v>-0.54379</v>
+      </c>
+      <c r="F5">
+        <v>0.36321</v>
+      </c>
+      <c r="G5">
+        <v>0.201</v>
+      </c>
+      <c r="H5">
+        <v>11.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.586</v>
+      </c>
+      <c r="K5">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.394</v>
+      </c>
+      <c r="M5">
+        <v>0.005884001999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.388115998</v>
+      </c>
+      <c r="O5">
+        <v>0.08732609955000001</v>
+      </c>
+      <c r="P5">
+        <v>0.30078989845</v>
+      </c>
+      <c r="Q5">
+        <v>0.49278989845</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.1197550492349758</v>
+      </c>
+      <c r="T5">
+        <v>1.09908370028651</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.225</v>
+      </c>
+      <c r="W5">
+        <v>0.012555</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>66.96122808931746</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.1163288913446818</v>
+      </c>
+      <c r="C6">
+        <v>11.91719382259393</v>
+      </c>
+      <c r="D6">
+        <v>12.20047382259393</v>
+      </c>
+      <c r="E6">
+        <v>-0.42272</v>
+      </c>
+      <c r="F6">
+        <v>0.48428</v>
+      </c>
+      <c r="G6">
+        <v>0.201</v>
+      </c>
+      <c r="H6">
+        <v>11.2</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.586</v>
+      </c>
+      <c r="K6">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.394</v>
+      </c>
+      <c r="M6">
+        <v>0.007845336</v>
+      </c>
+      <c r="N6">
+        <v>0.386154664</v>
+      </c>
+      <c r="O6">
+        <v>0.0868847994</v>
+      </c>
+      <c r="P6">
+        <v>0.2992698646</v>
+      </c>
+      <c r="Q6">
+        <v>0.4912698646</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1206528034840435</v>
+      </c>
+      <c r="T6">
+        <v>1.108016809898495</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.225</v>
+      </c>
+      <c r="W6">
+        <v>0.012555</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>50.22092106698809</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.116118734931437</v>
+      </c>
+      <c r="C7">
+        <v>11.82012717575186</v>
+      </c>
+      <c r="D7">
+        <v>12.22447717575186</v>
+      </c>
+      <c r="E7">
+        <v>-0.30165</v>
+      </c>
+      <c r="F7">
+        <v>0.6053500000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.201</v>
+      </c>
+      <c r="H7">
+        <v>11.2</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.586</v>
+      </c>
+      <c r="K7">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.394</v>
+      </c>
+      <c r="M7">
+        <v>0.00980667</v>
+      </c>
+      <c r="N7">
+        <v>0.38419333</v>
+      </c>
+      <c r="O7">
+        <v>0.08644349925</v>
+      </c>
+      <c r="P7">
+        <v>0.29774983075</v>
+      </c>
+      <c r="Q7">
+        <v>0.4897498307499999</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1215694578225653</v>
+      </c>
+      <c r="T7">
+        <v>1.117137984975997</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.225</v>
+      </c>
+      <c r="W7">
+        <v>0.012555</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>40.17673685359046</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.1159085785181923</v>
+      </c>
+      <c r="C8">
+        <v>11.72315516404471</v>
+      </c>
+      <c r="D8">
+        <v>12.2485751640447</v>
+      </c>
+      <c r="E8">
+        <v>-0.1805800000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.72642</v>
+      </c>
+      <c r="G8">
+        <v>0.201</v>
+      </c>
+      <c r="H8">
+        <v>11.2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.586</v>
+      </c>
+      <c r="K8">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L8">
+        <v>0.394</v>
+      </c>
+      <c r="M8">
+        <v>0.011768004</v>
+      </c>
+      <c r="N8">
+        <v>0.382231996</v>
+      </c>
+      <c r="O8">
+        <v>0.08600219910000001</v>
+      </c>
+      <c r="P8">
+        <v>0.2962297969</v>
+      </c>
+      <c r="Q8">
+        <v>0.4882297969</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1225056154448854</v>
+      </c>
+      <c r="T8">
+        <v>1.126453227608338</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.225</v>
+      </c>
+      <c r="W8">
+        <v>0.012555</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>33.48061404465873</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.1156984221049476</v>
+      </c>
+      <c r="C9">
+        <v>11.62627834823775</v>
+      </c>
+      <c r="D9">
+        <v>12.27276834823775</v>
+      </c>
+      <c r="E9">
+        <v>-0.05950999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.8474900000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.201</v>
+      </c>
+      <c r="H9">
+        <v>11.2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.586</v>
+      </c>
+      <c r="K9">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.394</v>
+      </c>
+      <c r="M9">
+        <v>0.013729338</v>
+      </c>
+      <c r="N9">
+        <v>0.380270662</v>
+      </c>
+      <c r="O9">
+        <v>0.08556089895000001</v>
+      </c>
+      <c r="P9">
+        <v>0.29470976305</v>
+      </c>
+      <c r="Q9">
+        <v>0.48670976305</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1234619054891909</v>
+      </c>
+      <c r="T9">
+        <v>1.135968798039225</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.225</v>
+      </c>
+      <c r="W9">
+        <v>0.012555</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>28.69766918113605</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.1154882656917028</v>
+      </c>
+      <c r="C10">
+        <v>11.5294972935355</v>
+      </c>
+      <c r="D10">
+        <v>12.2970572935355</v>
+      </c>
+      <c r="E10">
+        <v>0.06155999999999995</v>
+      </c>
+      <c r="F10">
+        <v>0.96856</v>
+      </c>
+      <c r="G10">
+        <v>0.201</v>
+      </c>
+      <c r="H10">
+        <v>11.2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.586</v>
+      </c>
+      <c r="K10">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.394</v>
+      </c>
+      <c r="M10">
+        <v>0.015690672</v>
+      </c>
+      <c r="N10">
+        <v>0.378309328</v>
+      </c>
+      <c r="O10">
+        <v>0.0851195988</v>
+      </c>
+      <c r="P10">
+        <v>0.2931897292</v>
+      </c>
+      <c r="Q10">
+        <v>0.4851897291999999</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1244389844475031</v>
+      </c>
+      <c r="T10">
+        <v>1.145691228696869</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.225</v>
+      </c>
+      <c r="W10">
+        <v>0.012555</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>25.11046053349404</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.1152781092784581</v>
+      </c>
+      <c r="C11">
+        <v>11.43281256962572</v>
+      </c>
+      <c r="D11">
+        <v>12.32144256962572</v>
+      </c>
+      <c r="E11">
+        <v>0.1826299999999998</v>
+      </c>
+      <c r="F11">
+        <v>1.08963</v>
+      </c>
+      <c r="G11">
+        <v>0.201</v>
+      </c>
+      <c r="H11">
+        <v>11.2</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.586</v>
+      </c>
+      <c r="K11">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L11">
+        <v>0.394</v>
+      </c>
+      <c r="M11">
+        <v>0.017652006</v>
+      </c>
+      <c r="N11">
+        <v>0.376347994</v>
+      </c>
+      <c r="O11">
+        <v>0.08467829865000001</v>
+      </c>
+      <c r="P11">
+        <v>0.29166969535</v>
+      </c>
+      <c r="Q11">
+        <v>0.4836696953499999</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1254375376686353</v>
+      </c>
+      <c r="T11">
+        <v>1.155627339149188</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.225</v>
+      </c>
+      <c r="W11">
+        <v>0.012555</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>22.32040936310582</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.1150679528652133</v>
+      </c>
+      <c r="C12">
+        <v>11.33622475072394</v>
+      </c>
+      <c r="D12">
+        <v>12.34592475072393</v>
+      </c>
+      <c r="E12">
+        <v>0.3037000000000001</v>
+      </c>
+      <c r="F12">
+        <v>1.2107</v>
+      </c>
+      <c r="G12">
+        <v>0.201</v>
+      </c>
+      <c r="H12">
+        <v>11.2</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.586</v>
+      </c>
+      <c r="K12">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L12">
+        <v>0.394</v>
+      </c>
+      <c r="M12">
+        <v>0.01961334</v>
+      </c>
+      <c r="N12">
+        <v>0.37438666</v>
+      </c>
+      <c r="O12">
+        <v>0.08423699850000001</v>
+      </c>
+      <c r="P12">
+        <v>0.2901496615</v>
+      </c>
+      <c r="Q12">
+        <v>0.4821496615</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1264582809613481</v>
+      </c>
+      <c r="T12">
+        <v>1.165784252056002</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.225</v>
+      </c>
+      <c r="W12">
+        <v>0.012555</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>20.08836842679523</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.1148577964519686</v>
+      </c>
+      <c r="C13">
+        <v>11.23973441561853</v>
+      </c>
+      <c r="D13">
+        <v>12.37050441561853</v>
+      </c>
+      <c r="E13">
+        <v>0.4247699999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.33177</v>
+      </c>
+      <c r="G13">
+        <v>0.201</v>
+      </c>
+      <c r="H13">
+        <v>11.2</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.586</v>
+      </c>
+      <c r="K13">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.394</v>
+      </c>
+      <c r="M13">
+        <v>0.021574674</v>
+      </c>
+      <c r="N13">
+        <v>0.372425326</v>
+      </c>
+      <c r="O13">
+        <v>0.08379569835</v>
+      </c>
+      <c r="P13">
+        <v>0.28862962765</v>
+      </c>
+      <c r="Q13">
+        <v>0.4806296276499999</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1275019623055827</v>
+      </c>
+      <c r="T13">
+        <v>1.176169410196677</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.225</v>
+      </c>
+      <c r="W13">
+        <v>0.012555</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>18.26215311526839</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.1146476400387239</v>
+      </c>
+      <c r="C14">
+        <v>11.14334214771636</v>
+      </c>
+      <c r="D14">
+        <v>12.39518214771636</v>
+      </c>
+      <c r="E14">
+        <v>0.5458399999999999</v>
+      </c>
+      <c r="F14">
+        <v>1.45284</v>
+      </c>
+      <c r="G14">
+        <v>0.201</v>
+      </c>
+      <c r="H14">
+        <v>11.2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.586</v>
+      </c>
+      <c r="K14">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L14">
+        <v>0.394</v>
+      </c>
+      <c r="M14">
+        <v>0.023536008</v>
+      </c>
+      <c r="N14">
+        <v>0.370463992</v>
+      </c>
+      <c r="O14">
+        <v>0.08335439820000001</v>
+      </c>
+      <c r="P14">
+        <v>0.2871095938</v>
+      </c>
+      <c r="Q14">
+        <v>0.4791095938</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1285693636803681</v>
+      </c>
+      <c r="T14">
+        <v>1.186790594658732</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.225</v>
+      </c>
+      <c r="W14">
+        <v>0.012555</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>16.74030702232936</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.1144374836254792</v>
+      </c>
+      <c r="C15">
+        <v>11.0470485350889</v>
+      </c>
+      <c r="D15">
+        <v>12.4199585350889</v>
+      </c>
+      <c r="E15">
+        <v>0.6669099999999999</v>
+      </c>
+      <c r="F15">
+        <v>1.57391</v>
+      </c>
+      <c r="G15">
+        <v>0.201</v>
+      </c>
+      <c r="H15">
+        <v>11.2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.586</v>
+      </c>
+      <c r="K15">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L15">
+        <v>0.394</v>
+      </c>
+      <c r="M15">
+        <v>0.025497342</v>
+      </c>
+      <c r="N15">
+        <v>0.368502658</v>
+      </c>
+      <c r="O15">
+        <v>0.08291309805000001</v>
+      </c>
+      <c r="P15">
+        <v>0.28558955995</v>
+      </c>
+      <c r="Q15">
+        <v>0.47758955995</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1296613030177921</v>
+      </c>
+      <c r="T15">
+        <v>1.197655944280833</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.225</v>
+      </c>
+      <c r="W15">
+        <v>0.012555</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>15.4525910975348</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.1142273272122344</v>
+      </c>
+      <c r="C16">
+        <v>10.95085417051897</v>
+      </c>
+      <c r="D16">
+        <v>12.44483417051897</v>
+      </c>
+      <c r="E16">
+        <v>0.7879800000000001</v>
+      </c>
+      <c r="F16">
+        <v>1.69498</v>
+      </c>
+      <c r="G16">
+        <v>0.201</v>
+      </c>
+      <c r="H16">
+        <v>11.2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.586</v>
+      </c>
+      <c r="K16">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L16">
+        <v>0.394</v>
+      </c>
+      <c r="M16">
+        <v>0.027458676</v>
+      </c>
+      <c r="N16">
+        <v>0.366541324</v>
+      </c>
+      <c r="O16">
+        <v>0.0824717979</v>
+      </c>
+      <c r="P16">
+        <v>0.2840695261</v>
+      </c>
+      <c r="Q16">
+        <v>0.4760695261</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1307786362932958</v>
+      </c>
+      <c r="T16">
+        <v>1.208773976452286</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.225</v>
+      </c>
+      <c r="W16">
+        <v>0.012555</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>14.34883459056802</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.1142031707989897</v>
+      </c>
+      <c r="C17">
+        <v>10.83264988520325</v>
+      </c>
+      <c r="D17">
+        <v>12.44769988520325</v>
+      </c>
+      <c r="E17">
+        <v>0.9090499999999997</v>
+      </c>
+      <c r="F17">
+        <v>1.81605</v>
+      </c>
+      <c r="G17">
+        <v>0.201</v>
+      </c>
+      <c r="H17">
+        <v>11.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.586</v>
+      </c>
+      <c r="K17">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L17">
+        <v>0.394</v>
+      </c>
+      <c r="M17">
+        <v>0.03232569</v>
+      </c>
+      <c r="N17">
+        <v>0.36167431</v>
+      </c>
+      <c r="O17">
+        <v>0.08137671975000001</v>
+      </c>
+      <c r="P17">
+        <v>0.28029759025</v>
+      </c>
+      <c r="Q17">
+        <v>0.47229759025</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1319222597635173</v>
+      </c>
+      <c r="T17">
+        <v>1.220153609380714</v>
+      </c>
+      <c r="U17">
+        <v>0.0178</v>
+      </c>
+      <c r="V17">
+        <v>0.225</v>
+      </c>
+      <c r="W17">
+        <v>0.013795</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>12.18844825895441</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.1140054143857449</v>
+      </c>
+      <c r="C18">
+        <v>10.73508977241286</v>
+      </c>
+      <c r="D18">
+        <v>12.47120977241286</v>
+      </c>
+      <c r="E18">
+        <v>1.03012</v>
+      </c>
+      <c r="F18">
+        <v>1.93712</v>
+      </c>
+      <c r="G18">
+        <v>0.201</v>
+      </c>
+      <c r="H18">
+        <v>11.2</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.586</v>
+      </c>
+      <c r="K18">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L18">
+        <v>0.394</v>
+      </c>
+      <c r="M18">
+        <v>0.034480736</v>
+      </c>
+      <c r="N18">
+        <v>0.359519264</v>
+      </c>
+      <c r="O18">
+        <v>0.0808918344</v>
+      </c>
+      <c r="P18">
+        <v>0.2786274296</v>
+      </c>
+      <c r="Q18">
+        <v>0.4706274295999999</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.1330931123639821</v>
+      </c>
+      <c r="T18">
+        <v>1.231804185950295</v>
+      </c>
+      <c r="U18">
+        <v>0.0178</v>
+      </c>
+      <c r="V18">
+        <v>0.225</v>
+      </c>
+      <c r="W18">
+        <v>0.013795</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>11.42667024276976</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.1138076579725002</v>
+      </c>
+      <c r="C19">
+        <v>10.63761863359932</v>
+      </c>
+      <c r="D19">
+        <v>12.49480863359932</v>
+      </c>
+      <c r="E19">
+        <v>1.15119</v>
+      </c>
+      <c r="F19">
+        <v>2.05819</v>
+      </c>
+      <c r="G19">
+        <v>0.201</v>
+      </c>
+      <c r="H19">
+        <v>11.2</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.586</v>
+      </c>
+      <c r="K19">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.394</v>
+      </c>
+      <c r="M19">
+        <v>0.03663578200000001</v>
+      </c>
+      <c r="N19">
+        <v>0.357364218</v>
+      </c>
+      <c r="O19">
+        <v>0.08040694905000001</v>
+      </c>
+      <c r="P19">
+        <v>0.27695726895</v>
+      </c>
+      <c r="Q19">
+        <v>0.46895726895</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1342921782801207</v>
+      </c>
+      <c r="T19">
+        <v>1.243735499304686</v>
+      </c>
+      <c r="U19">
+        <v>0.0178</v>
+      </c>
+      <c r="V19">
+        <v>0.225</v>
+      </c>
+      <c r="W19">
+        <v>0.013795</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>10.75451316966566</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.1139168015592555</v>
+      </c>
+      <c r="C20">
+        <v>10.5035131726622</v>
+      </c>
+      <c r="D20">
+        <v>12.4817731726622</v>
+      </c>
+      <c r="E20">
+        <v>1.27226</v>
+      </c>
+      <c r="F20">
+        <v>2.17926</v>
+      </c>
+      <c r="G20">
+        <v>0.201</v>
+      </c>
+      <c r="H20">
+        <v>11.2</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.586</v>
+      </c>
+      <c r="K20">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.394</v>
+      </c>
+      <c r="M20">
+        <v>0.04358519999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.3504148</v>
+      </c>
+      <c r="O20">
+        <v>0.07884333</v>
+      </c>
+      <c r="P20">
+        <v>0.27157147</v>
+      </c>
+      <c r="Q20">
+        <v>0.46357147</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1355204897064091</v>
+      </c>
+      <c r="T20">
+        <v>1.255957820301866</v>
+      </c>
+      <c r="U20">
+        <v>0.02</v>
+      </c>
+      <c r="V20">
+        <v>0.225</v>
+      </c>
+      <c r="W20">
+        <v>0.0155</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>9.039765792057857</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.1137360951460107</v>
+      </c>
+      <c r="C21">
+        <v>10.40404046101172</v>
+      </c>
+      <c r="D21">
+        <v>12.50337046101172</v>
+      </c>
+      <c r="E21">
+        <v>1.39333</v>
+      </c>
+      <c r="F21">
+        <v>2.30033</v>
+      </c>
+      <c r="G21">
+        <v>0.201</v>
+      </c>
+      <c r="H21">
+        <v>11.2</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.586</v>
+      </c>
+      <c r="K21">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L21">
+        <v>0.394</v>
+      </c>
+      <c r="M21">
+        <v>0.04600659999999999</v>
+      </c>
+      <c r="N21">
+        <v>0.3479934</v>
+      </c>
+      <c r="O21">
+        <v>0.078298515</v>
+      </c>
+      <c r="P21">
+        <v>0.269694885</v>
+      </c>
+      <c r="Q21">
+        <v>0.4616948849999999</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.1367791298098898</v>
+      </c>
+      <c r="T21">
+        <v>1.26848192700268</v>
+      </c>
+      <c r="U21">
+        <v>0.02</v>
+      </c>
+      <c r="V21">
+        <v>0.225</v>
+      </c>
+      <c r="W21">
+        <v>0.0155</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>8.563988645107443</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.113555388732766</v>
+      </c>
+      <c r="C22">
+        <v>10.30464261874805</v>
+      </c>
+      <c r="D22">
+        <v>12.52504261874805</v>
+      </c>
+      <c r="E22">
+        <v>1.5144</v>
+      </c>
+      <c r="F22">
+        <v>2.4214</v>
+      </c>
+      <c r="G22">
+        <v>0.201</v>
+      </c>
+      <c r="H22">
+        <v>11.2</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.586</v>
+      </c>
+      <c r="K22">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L22">
+        <v>0.394</v>
+      </c>
+      <c r="M22">
+        <v>0.048428</v>
+      </c>
+      <c r="N22">
+        <v>0.345572</v>
+      </c>
+      <c r="O22">
+        <v>0.0777537</v>
+      </c>
+      <c r="P22">
+        <v>0.2678183</v>
+      </c>
+      <c r="Q22">
+        <v>0.4598183</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.1380692359159575</v>
+      </c>
+      <c r="T22">
+        <v>1.281319136371015</v>
+      </c>
+      <c r="U22">
+        <v>0.02</v>
+      </c>
+      <c r="V22">
+        <v>0.225</v>
+      </c>
+      <c r="W22">
+        <v>0.0155</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>8.135789212852069</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.1135537073195213</v>
+      </c>
+      <c r="C23">
+        <v>10.1837746237711</v>
+      </c>
+      <c r="D23">
+        <v>12.5252446237711</v>
+      </c>
+      <c r="E23">
+        <v>1.63547</v>
+      </c>
+      <c r="F23">
+        <v>2.54247</v>
+      </c>
+      <c r="G23">
+        <v>0.201</v>
+      </c>
+      <c r="H23">
+        <v>11.2</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.586</v>
+      </c>
+      <c r="K23">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L23">
+        <v>0.394</v>
+      </c>
+      <c r="M23">
+        <v>0.053646117</v>
+      </c>
+      <c r="N23">
+        <v>0.340353883</v>
+      </c>
+      <c r="O23">
+        <v>0.07657962367500001</v>
+      </c>
+      <c r="P23">
+        <v>0.263774259325</v>
+      </c>
+      <c r="Q23">
+        <v>0.4557742593249999</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.1393920029361029</v>
+      </c>
+      <c r="T23">
+        <v>1.294481338381586</v>
+      </c>
+      <c r="U23">
+        <v>0.0211</v>
+      </c>
+      <c r="V23">
+        <v>0.225</v>
+      </c>
+      <c r="W23">
+        <v>0.0163525</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>7.344427183797851</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.1133815259062765</v>
+      </c>
+      <c r="C24">
+        <v>10.08342505712158</v>
+      </c>
+      <c r="D24">
+        <v>12.54596505712158</v>
+      </c>
+      <c r="E24">
+        <v>1.75654</v>
+      </c>
+      <c r="F24">
+        <v>2.66354</v>
+      </c>
+      <c r="G24">
+        <v>0.201</v>
+      </c>
+      <c r="H24">
+        <v>11.2</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.586</v>
+      </c>
+      <c r="K24">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L24">
+        <v>0.394</v>
+      </c>
+      <c r="M24">
+        <v>0.056200694</v>
+      </c>
+      <c r="N24">
+        <v>0.337799306</v>
+      </c>
+      <c r="O24">
+        <v>0.07600484385</v>
+      </c>
+      <c r="P24">
+        <v>0.26179446215</v>
+      </c>
+      <c r="Q24">
+        <v>0.45379446215</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1407486870593289</v>
+      </c>
+      <c r="T24">
+        <v>1.307981032751403</v>
+      </c>
+      <c r="U24">
+        <v>0.0211</v>
+      </c>
+      <c r="V24">
+        <v>0.225</v>
+      </c>
+      <c r="W24">
+        <v>0.0163525</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>7.010589584534313</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.1132093444930318</v>
+      </c>
+      <c r="C25">
+        <v>9.98314415943566</v>
+      </c>
+      <c r="D25">
+        <v>12.56675415943566</v>
+      </c>
+      <c r="E25">
+        <v>1.87761</v>
+      </c>
+      <c r="F25">
+        <v>2.78461</v>
+      </c>
+      <c r="G25">
+        <v>0.201</v>
+      </c>
+      <c r="H25">
+        <v>11.2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.586</v>
+      </c>
+      <c r="K25">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L25">
+        <v>0.394</v>
+      </c>
+      <c r="M25">
+        <v>0.058755271</v>
+      </c>
+      <c r="N25">
+        <v>0.335244729</v>
+      </c>
+      <c r="O25">
+        <v>0.07543006402500001</v>
+      </c>
+      <c r="P25">
+        <v>0.259814664975</v>
+      </c>
+      <c r="Q25">
+        <v>0.4518146649749999</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.1421406097312101</v>
+      </c>
+      <c r="T25">
+        <v>1.321831368533422</v>
+      </c>
+      <c r="U25">
+        <v>0.0211</v>
+      </c>
+      <c r="V25">
+        <v>0.225</v>
+      </c>
+      <c r="W25">
+        <v>0.0163525</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>6.705781341728473</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.1133161630797871</v>
+      </c>
+      <c r="C26">
+        <v>9.849168829344006</v>
+      </c>
+      <c r="D26">
+        <v>12.55384882934401</v>
+      </c>
+      <c r="E26">
+        <v>1.99868</v>
+      </c>
+      <c r="F26">
+        <v>2.90568</v>
+      </c>
+      <c r="G26">
+        <v>0.201</v>
+      </c>
+      <c r="H26">
+        <v>11.2</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.586</v>
+      </c>
+      <c r="K26">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L26">
+        <v>0.394</v>
+      </c>
+      <c r="M26">
+        <v>0.06566836799999999</v>
+      </c>
+      <c r="N26">
+        <v>0.328331632</v>
+      </c>
+      <c r="O26">
+        <v>0.07387461720000001</v>
+      </c>
+      <c r="P26">
+        <v>0.2544570148</v>
+      </c>
+      <c r="Q26">
+        <v>0.4464570148</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1435691619470882</v>
+      </c>
+      <c r="T26">
+        <v>1.336046186836021</v>
+      </c>
+      <c r="U26">
+        <v>0.0226</v>
+      </c>
+      <c r="V26">
+        <v>0.225</v>
+      </c>
+      <c r="W26">
+        <v>0.017515</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>5.999844552250789</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.1131556066665423</v>
+      </c>
+      <c r="C27">
+        <v>9.747506553251755</v>
+      </c>
+      <c r="D27">
+        <v>12.57325655325175</v>
+      </c>
+      <c r="E27">
+        <v>2.11975</v>
+      </c>
+      <c r="F27">
+        <v>3.02675</v>
+      </c>
+      <c r="G27">
+        <v>0.201</v>
+      </c>
+      <c r="H27">
+        <v>11.2</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.586</v>
+      </c>
+      <c r="K27">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L27">
+        <v>0.394</v>
+      </c>
+      <c r="M27">
+        <v>0.06840454999999999</v>
+      </c>
+      <c r="N27">
+        <v>0.32559545</v>
+      </c>
+      <c r="O27">
+        <v>0.07325897625000001</v>
+      </c>
+      <c r="P27">
+        <v>0.25233647375</v>
+      </c>
+      <c r="Q27">
+        <v>0.44433647375</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1450358088887231</v>
+      </c>
+      <c r="T27">
+        <v>1.350640066960023</v>
+      </c>
+      <c r="U27">
+        <v>0.0226</v>
+      </c>
+      <c r="V27">
+        <v>0.225</v>
+      </c>
+      <c r="W27">
+        <v>0.017515</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>5.759850770160758</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.1129950502532976</v>
+      </c>
+      <c r="C28">
+        <v>9.645904377126326</v>
+      </c>
+      <c r="D28">
+        <v>12.59272437712633</v>
+      </c>
+      <c r="E28">
+        <v>2.24082</v>
+      </c>
+      <c r="F28">
+        <v>3.14782</v>
+      </c>
+      <c r="G28">
+        <v>0.201</v>
+      </c>
+      <c r="H28">
+        <v>11.2</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.586</v>
+      </c>
+      <c r="K28">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L28">
+        <v>0.394</v>
+      </c>
+      <c r="M28">
+        <v>0.071140732</v>
+      </c>
+      <c r="N28">
+        <v>0.322859268</v>
+      </c>
+      <c r="O28">
+        <v>0.07264333530000001</v>
+      </c>
+      <c r="P28">
+        <v>0.2502159327</v>
+      </c>
+      <c r="Q28">
+        <v>0.4422159327</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1465420949368886</v>
+      </c>
+      <c r="T28">
+        <v>1.365628376276565</v>
+      </c>
+      <c r="U28">
+        <v>0.0226</v>
+      </c>
+      <c r="V28">
+        <v>0.225</v>
+      </c>
+      <c r="W28">
+        <v>0.017515</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>5.538318048231497</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.1128344938400529</v>
+      </c>
+      <c r="C29">
+        <v>9.544362580568304</v>
+      </c>
+      <c r="D29">
+        <v>12.6122525805683</v>
+      </c>
+      <c r="E29">
+        <v>2.36189</v>
+      </c>
+      <c r="F29">
+        <v>3.26889</v>
+      </c>
+      <c r="G29">
+        <v>0.201</v>
+      </c>
+      <c r="H29">
+        <v>11.2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.586</v>
+      </c>
+      <c r="K29">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L29">
+        <v>0.394</v>
+      </c>
+      <c r="M29">
+        <v>0.07387691399999999</v>
+      </c>
+      <c r="N29">
+        <v>0.3201230860000001</v>
+      </c>
+      <c r="O29">
+        <v>0.07202769435000002</v>
+      </c>
+      <c r="P29">
+        <v>0.2480953916500001</v>
+      </c>
+      <c r="Q29">
+        <v>0.44009539165</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1480896490959628</v>
+      </c>
+      <c r="T29">
+        <v>1.38102732420452</v>
+      </c>
+      <c r="U29">
+        <v>0.0226</v>
+      </c>
+      <c r="V29">
+        <v>0.225</v>
+      </c>
+      <c r="W29">
+        <v>0.017515</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>5.333195157556258</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.1126739374268081</v>
+      </c>
+      <c r="C30">
+        <v>9.44288144491534</v>
+      </c>
+      <c r="D30">
+        <v>12.63184144491534</v>
+      </c>
+      <c r="E30">
+        <v>2.48296</v>
+      </c>
+      <c r="F30">
+        <v>3.38996</v>
+      </c>
+      <c r="G30">
+        <v>0.201</v>
+      </c>
+      <c r="H30">
+        <v>11.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.586</v>
+      </c>
+      <c r="K30">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L30">
+        <v>0.394</v>
+      </c>
+      <c r="M30">
+        <v>0.07661309600000001</v>
+      </c>
+      <c r="N30">
+        <v>0.317386904</v>
+      </c>
+      <c r="O30">
+        <v>0.07141205340000001</v>
+      </c>
+      <c r="P30">
+        <v>0.2459748506</v>
+      </c>
+      <c r="Q30">
+        <v>0.4379748506</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1496801908705668</v>
+      </c>
+      <c r="T30">
+        <v>1.396854020686028</v>
+      </c>
+      <c r="U30">
+        <v>0.0226</v>
+      </c>
+      <c r="V30">
+        <v>0.225</v>
+      </c>
+      <c r="W30">
+        <v>0.017515</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>5.142723901929247</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.1125133810135634</v>
+      </c>
+      <c r="C31">
+        <v>9.341461253255654</v>
+      </c>
+      <c r="D31">
+        <v>12.65149125325565</v>
+      </c>
+      <c r="E31">
+        <v>2.604029999999999</v>
+      </c>
+      <c r="F31">
+        <v>3.511029999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.201</v>
+      </c>
+      <c r="H31">
+        <v>11.2</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.586</v>
+      </c>
+      <c r="K31">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L31">
+        <v>0.394</v>
+      </c>
+      <c r="M31">
+        <v>0.07934927799999998</v>
+      </c>
+      <c r="N31">
+        <v>0.314650722</v>
+      </c>
+      <c r="O31">
+        <v>0.07079641245000001</v>
+      </c>
+      <c r="P31">
+        <v>0.24385430955</v>
+      </c>
+      <c r="Q31">
+        <v>0.43585430955</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1513155366388216</v>
+      </c>
+      <c r="T31">
+        <v>1.413126539603636</v>
+      </c>
+      <c r="U31">
+        <v>0.0226</v>
+      </c>
+      <c r="V31">
+        <v>0.225</v>
+      </c>
+      <c r="W31">
+        <v>0.017515</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>4.965388594966171</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
         <v>0.3</v>
       </c>
-      <c r="V4">
-        <v>0.1020408163265306</v>
-      </c>
-      <c r="W4">
-        <v>0.1063424947145877</v>
-      </c>
-      <c r="X4">
-        <v>0.1429930818557343</v>
-      </c>
-      <c r="Y4">
-        <v>-0.03665058714114661</v>
-      </c>
-      <c r="Z4">
-        <v>1.061843640606768</v>
-      </c>
-      <c r="AA4">
-        <v>0.1120207849344478</v>
-      </c>
-      <c r="AB4">
-        <v>0.1429655982791197</v>
-      </c>
-      <c r="AC4">
-        <v>-0.03094481334467195</v>
-      </c>
-      <c r="AD4">
-        <v>0.001</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0.001</v>
-      </c>
-      <c r="AG4">
-        <v>-0.299</v>
-      </c>
-      <c r="AH4">
-        <v>0.0003400204012240735</v>
-      </c>
-      <c r="AI4">
-        <v>0.0001754078231889142</v>
-      </c>
-      <c r="AJ4">
-        <v>-0.1132146914047709</v>
-      </c>
-      <c r="AK4">
-        <v>-0.0553601184965747</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>-0.01</v>
-      </c>
-      <c r="AN4">
-        <v>0.001209189842805321</v>
-      </c>
-      <c r="AP4">
-        <v>-0.3615477629987908</v>
-      </c>
-      <c r="AQ4">
-        <v>-63.3</v>
+      <c r="B32">
+        <v>0.1123528246003186</v>
+      </c>
+      <c r="C32">
+        <v>9.24010229044166</v>
+      </c>
+      <c r="D32">
+        <v>12.67120229044166</v>
+      </c>
+      <c r="E32">
+        <v>2.725099999999999</v>
+      </c>
+      <c r="F32">
+        <v>3.632099999999999</v>
+      </c>
+      <c r="G32">
+        <v>0.201</v>
+      </c>
+      <c r="H32">
+        <v>11.2</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.586</v>
+      </c>
+      <c r="K32">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L32">
+        <v>0.394</v>
+      </c>
+      <c r="M32">
+        <v>0.08208545999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.31191454</v>
+      </c>
+      <c r="O32">
+        <v>0.0701807715</v>
+      </c>
+      <c r="P32">
+        <v>0.2417337685</v>
+      </c>
+      <c r="Q32">
+        <v>0.4337337684999999</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1529976065718838</v>
+      </c>
+      <c r="T32">
+        <v>1.429863987633175</v>
+      </c>
+      <c r="U32">
+        <v>0.0226</v>
+      </c>
+      <c r="V32">
+        <v>0.225</v>
+      </c>
+      <c r="W32">
+        <v>0.017515</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>4.799875641800631</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.1121922681870739</v>
+      </c>
+      <c r="C33">
+        <v>9.138804843103763</v>
+      </c>
+      <c r="D33">
+        <v>12.69097484310376</v>
+      </c>
+      <c r="E33">
+        <v>2.84617</v>
+      </c>
+      <c r="F33">
+        <v>3.75317</v>
+      </c>
+      <c r="G33">
+        <v>0.201</v>
+      </c>
+      <c r="H33">
+        <v>11.2</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.586</v>
+      </c>
+      <c r="K33">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L33">
+        <v>0.394</v>
+      </c>
+      <c r="M33">
+        <v>0.08482164199999999</v>
+      </c>
+      <c r="N33">
+        <v>0.309178358</v>
+      </c>
+      <c r="O33">
+        <v>0.06956513055000001</v>
+      </c>
+      <c r="P33">
+        <v>0.23961322745</v>
+      </c>
+      <c r="Q33">
+        <v>0.43161322745</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1547284321551796</v>
+      </c>
+      <c r="T33">
+        <v>1.44708657908386</v>
+      </c>
+      <c r="U33">
+        <v>0.0226</v>
+      </c>
+      <c r="V33">
+        <v>0.225</v>
+      </c>
+      <c r="W33">
+        <v>0.017515</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>4.645040943678031</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.1345050380133726</v>
+      </c>
+      <c r="C34">
+        <v>6.756078243348744</v>
+      </c>
+      <c r="D34">
+        <v>10.42931824334874</v>
+      </c>
+      <c r="E34">
+        <v>2.96724</v>
+      </c>
+      <c r="F34">
+        <v>3.87424</v>
+      </c>
+      <c r="G34">
+        <v>0.201</v>
+      </c>
+      <c r="H34">
+        <v>11.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.586</v>
+      </c>
+      <c r="K34">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L34">
+        <v>0.394</v>
+      </c>
+      <c r="M34">
+        <v>0.42229216</v>
+      </c>
+      <c r="N34">
+        <v>-0.02829215999999996</v>
+      </c>
+      <c r="O34">
+        <v>-0.00636573599999999</v>
+      </c>
+      <c r="P34">
+        <v>-0.02192642399999997</v>
+      </c>
+      <c r="Q34">
+        <v>0.170073576</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1572753651543227</v>
+      </c>
+      <c r="T34">
+        <v>1.472429852790841</v>
+      </c>
+      <c r="U34">
+        <v>0.109</v>
+      </c>
+      <c r="V34">
+        <v>0.2099257537719857</v>
+      </c>
+      <c r="W34">
+        <v>0.08611809283885355</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>0.9330033500977144</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.1355020380133726</v>
+      </c>
+      <c r="C35">
+        <v>6.552616306956111</v>
+      </c>
+      <c r="D35">
+        <v>10.34692630695611</v>
+      </c>
+      <c r="E35">
+        <v>3.08831</v>
+      </c>
+      <c r="F35">
+        <v>3.99531</v>
+      </c>
+      <c r="G35">
+        <v>0.201</v>
+      </c>
+      <c r="H35">
+        <v>11.2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.586</v>
+      </c>
+      <c r="K35">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L35">
+        <v>0.394</v>
+      </c>
+      <c r="M35">
+        <v>0.43548879</v>
+      </c>
+      <c r="N35">
+        <v>-0.04148879</v>
+      </c>
+      <c r="O35">
+        <v>-0.009334977749999999</v>
+      </c>
+      <c r="P35">
+        <v>-0.03215381225</v>
+      </c>
+      <c r="Q35">
+        <v>0.15984618775</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1594839526939395</v>
+      </c>
+      <c r="T35">
+        <v>1.494406417757869</v>
+      </c>
+      <c r="U35">
+        <v>0.109</v>
+      </c>
+      <c r="V35">
+        <v>0.2035643672940468</v>
+      </c>
+      <c r="W35">
+        <v>0.08681148396494889</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>0.9047305213068745</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.1364990380133726</v>
+      </c>
+      <c r="C36">
+        <v>6.350445964617431</v>
+      </c>
+      <c r="D36">
+        <v>10.26582596461743</v>
+      </c>
+      <c r="E36">
+        <v>3.20938</v>
+      </c>
+      <c r="F36">
+        <v>4.11638</v>
+      </c>
+      <c r="G36">
+        <v>0.201</v>
+      </c>
+      <c r="H36">
+        <v>11.2</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.586</v>
+      </c>
+      <c r="K36">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L36">
+        <v>0.394</v>
+      </c>
+      <c r="M36">
+        <v>0.4486854200000001</v>
+      </c>
+      <c r="N36">
+        <v>-0.05468542000000004</v>
+      </c>
+      <c r="O36">
+        <v>-0.01230421950000001</v>
+      </c>
+      <c r="P36">
+        <v>-0.04238120050000003</v>
+      </c>
+      <c r="Q36">
+        <v>0.1496187994999999</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1617594671286962</v>
+      </c>
+      <c r="T36">
+        <v>1.517048939239049</v>
+      </c>
+      <c r="U36">
+        <v>0.109</v>
+      </c>
+      <c r="V36">
+        <v>0.1975771800206924</v>
+      </c>
+      <c r="W36">
+        <v>0.08746408737774453</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>0.8781208000919664</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.1374960380133726</v>
+      </c>
+      <c r="C37">
+        <v>6.149537081565087</v>
+      </c>
+      <c r="D37">
+        <v>10.18598708156509</v>
+      </c>
+      <c r="E37">
+        <v>3.33045</v>
+      </c>
+      <c r="F37">
+        <v>4.23745</v>
+      </c>
+      <c r="G37">
+        <v>0.201</v>
+      </c>
+      <c r="H37">
+        <v>11.2</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.586</v>
+      </c>
+      <c r="K37">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L37">
+        <v>0.394</v>
+      </c>
+      <c r="M37">
+        <v>0.46188205</v>
+      </c>
+      <c r="N37">
+        <v>-0.06788204999999997</v>
+      </c>
+      <c r="O37">
+        <v>-0.01527346124999999</v>
+      </c>
+      <c r="P37">
+        <v>-0.05260858874999998</v>
+      </c>
+      <c r="Q37">
+        <v>0.13939141125</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1641049973922146</v>
+      </c>
+      <c r="T37">
+        <v>1.54038815368888</v>
+      </c>
+      <c r="U37">
+        <v>0.109</v>
+      </c>
+      <c r="V37">
+        <v>0.191932117734387</v>
+      </c>
+      <c r="W37">
+        <v>0.08807939916695183</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>0.8530316343750531</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.1384930380133726</v>
+      </c>
+      <c r="C38">
+        <v>5.949860453247628</v>
+      </c>
+      <c r="D38">
+        <v>10.10738045324763</v>
+      </c>
+      <c r="E38">
+        <v>3.451519999999999</v>
+      </c>
+      <c r="F38">
+        <v>4.35852</v>
+      </c>
+      <c r="G38">
+        <v>0.201</v>
+      </c>
+      <c r="H38">
+        <v>11.2</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.586</v>
+      </c>
+      <c r="K38">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.394</v>
+      </c>
+      <c r="M38">
+        <v>0.4750786799999999</v>
+      </c>
+      <c r="N38">
+        <v>-0.0810786799999999</v>
+      </c>
+      <c r="O38">
+        <v>-0.01824270299999998</v>
+      </c>
+      <c r="P38">
+        <v>-0.06283597699999993</v>
+      </c>
+      <c r="Q38">
+        <v>0.129164023</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1665238254764679</v>
+      </c>
+      <c r="T38">
+        <v>1.564456718590269</v>
+      </c>
+      <c r="U38">
+        <v>0.109</v>
+      </c>
+      <c r="V38">
+        <v>0.1866006700195429</v>
+      </c>
+      <c r="W38">
+        <v>0.08866052696786982</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>0.8293363111979685</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.1394900380133726</v>
+      </c>
+      <c r="C39">
+        <v>5.751387769711634</v>
+      </c>
+      <c r="D39">
+        <v>10.02997776971163</v>
+      </c>
+      <c r="E39">
+        <v>3.57259</v>
+      </c>
+      <c r="F39">
+        <v>4.47959</v>
+      </c>
+      <c r="G39">
+        <v>0.201</v>
+      </c>
+      <c r="H39">
+        <v>11.2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.586</v>
+      </c>
+      <c r="K39">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L39">
+        <v>0.394</v>
+      </c>
+      <c r="M39">
+        <v>0.48827531</v>
+      </c>
+      <c r="N39">
+        <v>-0.09427531</v>
+      </c>
+      <c r="O39">
+        <v>-0.02121194475</v>
+      </c>
+      <c r="P39">
+        <v>-0.07306336525</v>
+      </c>
+      <c r="Q39">
+        <v>0.11893663475</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1690194417538722</v>
+      </c>
+      <c r="T39">
+        <v>1.589289364917099</v>
+      </c>
+      <c r="U39">
+        <v>0.109</v>
+      </c>
+      <c r="V39">
+        <v>0.1815574086676633</v>
+      </c>
+      <c r="W39">
+        <v>0.0892102424552247</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>0.8069218163007259</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.1539556170662464</v>
+      </c>
+      <c r="C40">
+        <v>4.627318790004647</v>
+      </c>
+      <c r="D40">
+        <v>9.026978790004646</v>
+      </c>
+      <c r="E40">
+        <v>3.693659999999999</v>
+      </c>
+      <c r="F40">
+        <v>4.60066</v>
+      </c>
+      <c r="G40">
+        <v>0.201</v>
+      </c>
+      <c r="H40">
+        <v>11.2</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.586</v>
+      </c>
+      <c r="K40">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L40">
+        <v>0.394</v>
+      </c>
+      <c r="M40">
+        <v>0.6450125319999999</v>
+      </c>
+      <c r="N40">
+        <v>-0.2510125319999998</v>
+      </c>
+      <c r="O40">
+        <v>-0.05647781969999997</v>
+      </c>
+      <c r="P40">
+        <v>-0.1945347122999999</v>
+      </c>
+      <c r="Q40">
+        <v>-0.002534712299999936</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1741964957384084</v>
+      </c>
+      <c r="T40">
+        <v>1.640803674940197</v>
+      </c>
+      <c r="U40">
+        <v>0.1402</v>
+      </c>
+      <c r="V40">
+        <v>0.1374391900962321</v>
+      </c>
+      <c r="W40">
+        <v>0.1209310255485082</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>0.610840844872143</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.1552646170662464</v>
+      </c>
+      <c r="C41">
+        <v>4.425295505067424</v>
+      </c>
+      <c r="D41">
+        <v>8.946025505067423</v>
+      </c>
+      <c r="E41">
+        <v>3.81473</v>
+      </c>
+      <c r="F41">
+        <v>4.72173</v>
+      </c>
+      <c r="G41">
+        <v>0.201</v>
+      </c>
+      <c r="H41">
+        <v>11.2</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.586</v>
+      </c>
+      <c r="K41">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L41">
+        <v>0.394</v>
+      </c>
+      <c r="M41">
+        <v>0.661986546</v>
+      </c>
+      <c r="N41">
+        <v>-0.2679865459999999</v>
+      </c>
+      <c r="O41">
+        <v>-0.06029697284999998</v>
+      </c>
+      <c r="P41">
+        <v>-0.2076895731499999</v>
+      </c>
+      <c r="Q41">
+        <v>-0.01568957315</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1768997169800217</v>
+      </c>
+      <c r="T41">
+        <v>1.667702095840856</v>
+      </c>
+      <c r="U41">
+        <v>0.1402</v>
+      </c>
+      <c r="V41">
+        <v>0.1339151082988928</v>
+      </c>
+      <c r="W41">
+        <v>0.1214251018164952</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>0.5951782591061905</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.1565736170662464</v>
+      </c>
+      <c r="C42">
+        <v>4.224711281003342</v>
+      </c>
+      <c r="D42">
+        <v>8.866511281003342</v>
+      </c>
+      <c r="E42">
+        <v>3.9358</v>
+      </c>
+      <c r="F42">
+        <v>4.8428</v>
+      </c>
+      <c r="G42">
+        <v>0.201</v>
+      </c>
+      <c r="H42">
+        <v>11.2</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.586</v>
+      </c>
+      <c r="K42">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L42">
+        <v>0.394</v>
+      </c>
+      <c r="M42">
+        <v>0.67896056</v>
+      </c>
+      <c r="N42">
+        <v>-0.28496056</v>
+      </c>
+      <c r="O42">
+        <v>-0.06411612600000001</v>
+      </c>
+      <c r="P42">
+        <v>-0.220844434</v>
+      </c>
+      <c r="Q42">
+        <v>-0.02884443400000009</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1796930455963554</v>
+      </c>
+      <c r="T42">
+        <v>1.695497130771537</v>
+      </c>
+      <c r="U42">
+        <v>0.1402</v>
+      </c>
+      <c r="V42">
+        <v>0.1305672305914205</v>
+      </c>
+      <c r="W42">
+        <v>0.1218944742710828</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>0.5802988026285356</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.1578826170662464</v>
+      </c>
+      <c r="C43">
+        <v>4.025528083807075</v>
+      </c>
+      <c r="D43">
+        <v>8.788398083807074</v>
+      </c>
+      <c r="E43">
+        <v>4.05687</v>
+      </c>
+      <c r="F43">
+        <v>4.96387</v>
+      </c>
+      <c r="G43">
+        <v>0.201</v>
+      </c>
+      <c r="H43">
+        <v>11.2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.586</v>
+      </c>
+      <c r="K43">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L43">
+        <v>0.394</v>
+      </c>
+      <c r="M43">
+        <v>0.6959345739999999</v>
+      </c>
+      <c r="N43">
+        <v>-0.3019345739999999</v>
+      </c>
+      <c r="O43">
+        <v>-0.06793527914999999</v>
+      </c>
+      <c r="P43">
+        <v>-0.2339992948499999</v>
+      </c>
+      <c r="Q43">
+        <v>-0.04199929484999998</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1825810633183275</v>
+      </c>
+      <c r="T43">
+        <v>1.72423437027614</v>
+      </c>
+      <c r="U43">
+        <v>0.1402</v>
+      </c>
+      <c r="V43">
+        <v>0.1273826639916298</v>
+      </c>
+      <c r="W43">
+        <v>0.1223409505083735</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>0.5661451732961325</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.1591916170662464</v>
+      </c>
+      <c r="C44">
+        <v>3.827709208073623</v>
+      </c>
+      <c r="D44">
+        <v>8.711649208073622</v>
+      </c>
+      <c r="E44">
+        <v>4.17794</v>
+      </c>
+      <c r="F44">
+        <v>5.08494</v>
+      </c>
+      <c r="G44">
+        <v>0.201</v>
+      </c>
+      <c r="H44">
+        <v>11.2</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.586</v>
+      </c>
+      <c r="K44">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0.394</v>
+      </c>
+      <c r="M44">
+        <v>0.7129085879999999</v>
+      </c>
+      <c r="N44">
+        <v>-0.3189085879999999</v>
+      </c>
+      <c r="O44">
+        <v>-0.07175443229999998</v>
+      </c>
+      <c r="P44">
+        <v>-0.2471541556999999</v>
+      </c>
+      <c r="Q44">
+        <v>-0.05515415569999996</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1855686678582987</v>
+      </c>
+      <c r="T44">
+        <v>1.753962549074004</v>
+      </c>
+      <c r="U44">
+        <v>0.1402</v>
+      </c>
+      <c r="V44">
+        <v>0.1243497434204005</v>
+      </c>
+      <c r="W44">
+        <v>0.1227661659724598</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>0.5526655263128911</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.1605006170662464</v>
+      </c>
+      <c r="C45">
+        <v>3.631219219487385</v>
+      </c>
+      <c r="D45">
+        <v>8.636229219487385</v>
+      </c>
+      <c r="E45">
+        <v>4.29901</v>
+      </c>
+      <c r="F45">
+        <v>5.20601</v>
+      </c>
+      <c r="G45">
+        <v>0.201</v>
+      </c>
+      <c r="H45">
+        <v>11.2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.586</v>
+      </c>
+      <c r="K45">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0.394</v>
+      </c>
+      <c r="M45">
+        <v>0.729882602</v>
+      </c>
+      <c r="N45">
+        <v>-0.335882602</v>
+      </c>
+      <c r="O45">
+        <v>-0.07557358544999999</v>
+      </c>
+      <c r="P45">
+        <v>-0.26030901655</v>
+      </c>
+      <c r="Q45">
+        <v>-0.06830901655000005</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1886611006277425</v>
+      </c>
+      <c r="T45">
+        <v>1.784733821864776</v>
+      </c>
+      <c r="U45">
+        <v>0.1402</v>
+      </c>
+      <c r="V45">
+        <v>0.1214578889222516</v>
+      </c>
+      <c r="W45">
+        <v>0.1231716039731003</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>0.5398128396544517</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.1618096170662464</v>
+      </c>
+      <c r="C46">
+        <v>3.436023900272935</v>
+      </c>
+      <c r="D46">
+        <v>8.562103900272934</v>
+      </c>
+      <c r="E46">
+        <v>4.42008</v>
+      </c>
+      <c r="F46">
+        <v>5.32708</v>
+      </c>
+      <c r="G46">
+        <v>0.201</v>
+      </c>
+      <c r="H46">
+        <v>11.2</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.586</v>
+      </c>
+      <c r="K46">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0.394</v>
+      </c>
+      <c r="M46">
+        <v>0.7468566159999999</v>
+      </c>
+      <c r="N46">
+        <v>-0.3528566159999998</v>
+      </c>
+      <c r="O46">
+        <v>-0.07939273859999997</v>
+      </c>
+      <c r="P46">
+        <v>-0.2734638773999999</v>
+      </c>
+      <c r="Q46">
+        <v>-0.08146387739999994</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1918639774246665</v>
+      </c>
+      <c r="T46">
+        <v>1.81660406868379</v>
+      </c>
+      <c r="U46">
+        <v>0.1402</v>
+      </c>
+      <c r="V46">
+        <v>0.1186974823558369</v>
+      </c>
+      <c r="W46">
+        <v>0.1235586129737117</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>0.5275443660259416</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.1631186170662464</v>
+      </c>
+      <c r="C47">
+        <v>3.242090197431098</v>
+      </c>
+      <c r="D47">
+        <v>8.489240197431098</v>
+      </c>
+      <c r="E47">
+        <v>4.54115</v>
+      </c>
+      <c r="F47">
+        <v>5.44815</v>
+      </c>
+      <c r="G47">
+        <v>0.201</v>
+      </c>
+      <c r="H47">
+        <v>11.2</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.586</v>
+      </c>
+      <c r="K47">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L47">
+        <v>0.394</v>
+      </c>
+      <c r="M47">
+        <v>0.76383063</v>
+      </c>
+      <c r="N47">
+        <v>-0.3698306299999999</v>
+      </c>
+      <c r="O47">
+        <v>-0.08321189174999999</v>
+      </c>
+      <c r="P47">
+        <v>-0.2866187382499999</v>
+      </c>
+      <c r="Q47">
+        <v>-0.09461873825</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1951833224687513</v>
+      </c>
+      <c r="T47">
+        <v>1.84963323356895</v>
+      </c>
+      <c r="U47">
+        <v>0.1402</v>
+      </c>
+      <c r="V47">
+        <v>0.1160597605257071</v>
+      </c>
+      <c r="W47">
+        <v>0.1239284215742959</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>0.5158211578920318</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.1644276170662464</v>
+      </c>
+      <c r="C48">
+        <v>3.049386173595796</v>
+      </c>
+      <c r="D48">
+        <v>8.417606173595795</v>
+      </c>
+      <c r="E48">
+        <v>4.66222</v>
+      </c>
+      <c r="F48">
+        <v>5.56922</v>
+      </c>
+      <c r="G48">
+        <v>0.201</v>
+      </c>
+      <c r="H48">
+        <v>11.2</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.586</v>
+      </c>
+      <c r="K48">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L48">
+        <v>0.394</v>
+      </c>
+      <c r="M48">
+        <v>0.7808046439999999</v>
+      </c>
+      <c r="N48">
+        <v>-0.3868046439999999</v>
+      </c>
+      <c r="O48">
+        <v>-0.08703104489999998</v>
+      </c>
+      <c r="P48">
+        <v>-0.2997735991</v>
+      </c>
+      <c r="Q48">
+        <v>-0.1077735991</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1986256062181727</v>
+      </c>
+      <c r="T48">
+        <v>1.883885700857264</v>
+      </c>
+      <c r="U48">
+        <v>0.1402</v>
+      </c>
+      <c r="V48">
+        <v>0.1135367222534091</v>
+      </c>
+      <c r="W48">
+        <v>0.124282151540072</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>0.5046076544595962</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.1875156698661014</v>
+      </c>
+      <c r="C49">
+        <v>1.837805244167516</v>
+      </c>
+      <c r="D49">
+        <v>7.327095244167516</v>
+      </c>
+      <c r="E49">
+        <v>4.78329</v>
+      </c>
+      <c r="F49">
+        <v>5.69029</v>
+      </c>
+      <c r="G49">
+        <v>0.201</v>
+      </c>
+      <c r="H49">
+        <v>11.2</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.586</v>
+      </c>
+      <c r="K49">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L49">
+        <v>0.394</v>
+      </c>
+      <c r="M49">
+        <v>1.045306273</v>
+      </c>
+      <c r="N49">
+        <v>-0.651306273</v>
+      </c>
+      <c r="O49">
+        <v>-0.146543911425</v>
+      </c>
+      <c r="P49">
+        <v>-0.504762361575</v>
+      </c>
+      <c r="Q49">
+        <v>-0.312762361575</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.2047148682220156</v>
+      </c>
+      <c r="T49">
+        <v>1.944476942829011</v>
+      </c>
+      <c r="U49">
+        <v>0.1837</v>
+      </c>
+      <c r="V49">
+        <v>0.08480768009320079</v>
+      </c>
+      <c r="W49">
+        <v>0.168120829166879</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>0.3769230226364479</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.1892596698661014</v>
+      </c>
+      <c r="C50">
+        <v>1.645727922830821</v>
+      </c>
+      <c r="D50">
+        <v>7.256087922830821</v>
+      </c>
+      <c r="E50">
+        <v>4.90436</v>
+      </c>
+      <c r="F50">
+        <v>5.81136</v>
+      </c>
+      <c r="G50">
+        <v>0.201</v>
+      </c>
+      <c r="H50">
+        <v>11.2</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.586</v>
+      </c>
+      <c r="K50">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L50">
+        <v>0.394</v>
+      </c>
+      <c r="M50">
+        <v>1.067546832</v>
+      </c>
+      <c r="N50">
+        <v>-0.6735468319999999</v>
+      </c>
+      <c r="O50">
+        <v>-0.1515480372</v>
+      </c>
+      <c r="P50">
+        <v>-0.5219987947999999</v>
+      </c>
+      <c r="Q50">
+        <v>-0.3299987947999999</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.2084728464570543</v>
+      </c>
+      <c r="T50">
+        <v>1.981870730191107</v>
+      </c>
+      <c r="U50">
+        <v>0.1837</v>
+      </c>
+      <c r="V50">
+        <v>0.08304085342459244</v>
+      </c>
+      <c r="W50">
+        <v>0.1684453952259024</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>0.3690704596648553</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.1910036698661013</v>
+      </c>
+      <c r="C51">
+        <v>1.455013664425132</v>
+      </c>
+      <c r="D51">
+        <v>7.186443664425131</v>
+      </c>
+      <c r="E51">
+        <v>5.025429999999999</v>
+      </c>
+      <c r="F51">
+        <v>5.932429999999999</v>
+      </c>
+      <c r="G51">
+        <v>0.201</v>
+      </c>
+      <c r="H51">
+        <v>11.2</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.586</v>
+      </c>
+      <c r="K51">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L51">
+        <v>0.394</v>
+      </c>
+      <c r="M51">
+        <v>1.089787391</v>
+      </c>
+      <c r="N51">
+        <v>-0.6957873909999998</v>
+      </c>
+      <c r="O51">
+        <v>-0.1565521629749999</v>
+      </c>
+      <c r="P51">
+        <v>-0.5392352280249998</v>
+      </c>
+      <c r="Q51">
+        <v>-0.3472352280249998</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.2123781963875848</v>
+      </c>
+      <c r="T51">
+        <v>2.020730940587011</v>
+      </c>
+      <c r="U51">
+        <v>0.1837</v>
+      </c>
+      <c r="V51">
+        <v>0.08134614213021302</v>
+      </c>
+      <c r="W51">
+        <v>0.1687567136906798</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>0.3615384094676134</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.1927476698661014</v>
+      </c>
+      <c r="C52">
+        <v>1.265623593857294</v>
+      </c>
+      <c r="D52">
+        <v>7.118123593857294</v>
+      </c>
+      <c r="E52">
+        <v>5.1465</v>
+      </c>
+      <c r="F52">
+        <v>6.0535</v>
+      </c>
+      <c r="G52">
+        <v>0.201</v>
+      </c>
+      <c r="H52">
+        <v>11.2</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.586</v>
+      </c>
+      <c r="K52">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L52">
+        <v>0.394</v>
+      </c>
+      <c r="M52">
+        <v>1.11202795</v>
+      </c>
+      <c r="N52">
+        <v>-0.7180279499999999</v>
+      </c>
+      <c r="O52">
+        <v>-0.16155628875</v>
+      </c>
+      <c r="P52">
+        <v>-0.5564716612499999</v>
+      </c>
+      <c r="Q52">
+        <v>-0.36447166125</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.2164397603153365</v>
+      </c>
+      <c r="T52">
+        <v>2.061145559398752</v>
+      </c>
+      <c r="U52">
+        <v>0.1837</v>
+      </c>
+      <c r="V52">
+        <v>0.07971921928760875</v>
+      </c>
+      <c r="W52">
+        <v>0.1690555794168663</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>0.3543076412782611</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.1944916698661014</v>
+      </c>
+      <c r="C53">
+        <v>1.077520300423183</v>
+      </c>
+      <c r="D53">
+        <v>7.051090300423184</v>
+      </c>
+      <c r="E53">
+        <v>5.26757</v>
+      </c>
+      <c r="F53">
+        <v>6.17457</v>
+      </c>
+      <c r="G53">
+        <v>0.201</v>
+      </c>
+      <c r="H53">
+        <v>11.2</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.586</v>
+      </c>
+      <c r="K53">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L53">
+        <v>0.394</v>
+      </c>
+      <c r="M53">
+        <v>1.134268509</v>
+      </c>
+      <c r="N53">
+        <v>-0.740268509</v>
+      </c>
+      <c r="O53">
+        <v>-0.166560414525</v>
+      </c>
+      <c r="P53">
+        <v>-0.5737080944749999</v>
+      </c>
+      <c r="Q53">
+        <v>-0.381708094475</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.2206671023625883</v>
+      </c>
+      <c r="T53">
+        <v>2.103209754488522</v>
+      </c>
+      <c r="U53">
+        <v>0.1837</v>
+      </c>
+      <c r="V53">
+        <v>0.07815609734079287</v>
+      </c>
+      <c r="W53">
+        <v>0.1693427249184964</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>0.3473604326257461</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.1962356698661014</v>
+      </c>
+      <c r="C54">
+        <v>0.8906677694982603</v>
+      </c>
+      <c r="D54">
+        <v>6.98530776949826</v>
+      </c>
+      <c r="E54">
+        <v>5.38864</v>
+      </c>
+      <c r="F54">
+        <v>6.29564</v>
+      </c>
+      <c r="G54">
+        <v>0.201</v>
+      </c>
+      <c r="H54">
+        <v>11.2</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.586</v>
+      </c>
+      <c r="K54">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L54">
+        <v>0.394</v>
+      </c>
+      <c r="M54">
+        <v>1.156509068</v>
+      </c>
+      <c r="N54">
+        <v>-0.7625090679999998</v>
+      </c>
+      <c r="O54">
+        <v>-0.1715645403</v>
+      </c>
+      <c r="P54">
+        <v>-0.5909445276999998</v>
+      </c>
+      <c r="Q54">
+        <v>-0.3989445276999999</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.2250705836618089</v>
+      </c>
+      <c r="T54">
+        <v>2.1470266243737</v>
+      </c>
+      <c r="U54">
+        <v>0.1837</v>
+      </c>
+      <c r="V54">
+        <v>0.07665309546885457</v>
+      </c>
+      <c r="W54">
+        <v>0.1696188263623714</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>0.3406804243060203</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1979796698661014</v>
+      </c>
+      <c r="C55">
+        <v>0.7050313180164958</v>
+      </c>
+      <c r="D55">
+        <v>6.920741318016496</v>
+      </c>
+      <c r="E55">
+        <v>5.50971</v>
+      </c>
+      <c r="F55">
+        <v>6.41671</v>
+      </c>
+      <c r="G55">
+        <v>0.201</v>
+      </c>
+      <c r="H55">
+        <v>11.2</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.586</v>
+      </c>
+      <c r="K55">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L55">
+        <v>0.394</v>
+      </c>
+      <c r="M55">
+        <v>1.178749627</v>
+      </c>
+      <c r="N55">
+        <v>-0.7847496269999999</v>
+      </c>
+      <c r="O55">
+        <v>-0.176568666075</v>
+      </c>
+      <c r="P55">
+        <v>-0.608180960925</v>
+      </c>
+      <c r="Q55">
+        <v>-0.416180960925</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.229661447143975</v>
+      </c>
+      <c r="T55">
+        <v>2.192708041913566</v>
+      </c>
+      <c r="U55">
+        <v>0.1837</v>
+      </c>
+      <c r="V55">
+        <v>0.07520681064868749</v>
+      </c>
+      <c r="W55">
+        <v>0.1698845088838361</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.3342524917719444</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1997236698661014</v>
+      </c>
+      <c r="C56">
+        <v>0.5205775334948148</v>
+      </c>
+      <c r="D56">
+        <v>6.857357533494815</v>
+      </c>
+      <c r="E56">
+        <v>5.63078</v>
+      </c>
+      <c r="F56">
+        <v>6.53778</v>
+      </c>
+      <c r="G56">
+        <v>0.201</v>
+      </c>
+      <c r="H56">
+        <v>11.2</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.586</v>
+      </c>
+      <c r="K56">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L56">
+        <v>0.394</v>
+      </c>
+      <c r="M56">
+        <v>1.200990186</v>
+      </c>
+      <c r="N56">
+        <v>-0.8069901860000001</v>
+      </c>
+      <c r="O56">
+        <v>-0.18157279185</v>
+      </c>
+      <c r="P56">
+        <v>-0.6254173941500001</v>
+      </c>
+      <c r="Q56">
+        <v>-0.4334173941500001</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.2344519133862354</v>
+      </c>
+      <c r="T56">
+        <v>2.240375608042122</v>
+      </c>
+      <c r="U56">
+        <v>0.1837</v>
+      </c>
+      <c r="V56">
+        <v>0.07381409193297105</v>
+      </c>
+      <c r="W56">
+        <v>0.1701403513119132</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.3280626308132046</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.2014676698661014</v>
+      </c>
+      <c r="C57">
+        <v>0.3372742163777982</v>
+      </c>
+      <c r="D57">
+        <v>6.795124216377799</v>
+      </c>
+      <c r="E57">
+        <v>5.75185</v>
+      </c>
+      <c r="F57">
+        <v>6.65885</v>
+      </c>
+      <c r="G57">
+        <v>0.201</v>
+      </c>
+      <c r="H57">
+        <v>11.2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.586</v>
+      </c>
+      <c r="K57">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L57">
+        <v>0.394</v>
+      </c>
+      <c r="M57">
+        <v>1.223230745</v>
+      </c>
+      <c r="N57">
+        <v>-0.8292307449999999</v>
+      </c>
+      <c r="O57">
+        <v>-0.186576917625</v>
+      </c>
+      <c r="P57">
+        <v>-0.642653827375</v>
+      </c>
+      <c r="Q57">
+        <v>-0.450653827375</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.2394552892392628</v>
+      </c>
+      <c r="T57">
+        <v>2.29016173266528</v>
+      </c>
+      <c r="U57">
+        <v>0.1837</v>
+      </c>
+      <c r="V57">
+        <v>0.07247201753418976</v>
+      </c>
+      <c r="W57">
+        <v>0.1703868903789693</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.32209785570751</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.2032116698661014</v>
+      </c>
+      <c r="C58">
+        <v>0.1550903254936351</v>
+      </c>
+      <c r="D58">
+        <v>6.734010325493636</v>
+      </c>
+      <c r="E58">
+        <v>5.872920000000001</v>
+      </c>
+      <c r="F58">
+        <v>6.779920000000001</v>
+      </c>
+      <c r="G58">
+        <v>0.201</v>
+      </c>
+      <c r="H58">
+        <v>11.2</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.586</v>
+      </c>
+      <c r="K58">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L58">
+        <v>0.394</v>
+      </c>
+      <c r="M58">
+        <v>1.245471304</v>
+      </c>
+      <c r="N58">
+        <v>-0.851471304</v>
+      </c>
+      <c r="O58">
+        <v>-0.1915810434</v>
+      </c>
+      <c r="P58">
+        <v>-0.6598902606</v>
+      </c>
+      <c r="Q58">
+        <v>-0.4678902606000001</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.2446860912674279</v>
+      </c>
+      <c r="T58">
+        <v>2.342210862953127</v>
+      </c>
+      <c r="U58">
+        <v>0.1837</v>
+      </c>
+      <c r="V58">
+        <v>0.07117787436393637</v>
+      </c>
+      <c r="W58">
+        <v>0.1706246244793449</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.3163461082841617</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.2049556698661014</v>
+      </c>
+      <c r="C59">
+        <v>-0.02600407357283885</v>
+      </c>
+      <c r="D59">
+        <v>6.673985926427162</v>
+      </c>
+      <c r="E59">
+        <v>5.99399</v>
+      </c>
+      <c r="F59">
+        <v>6.90099</v>
+      </c>
+      <c r="G59">
+        <v>0.201</v>
+      </c>
+      <c r="H59">
+        <v>11.2</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.586</v>
+      </c>
+      <c r="K59">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L59">
+        <v>0.394</v>
+      </c>
+      <c r="M59">
+        <v>1.267711863</v>
+      </c>
+      <c r="N59">
+        <v>-0.8737118629999999</v>
+      </c>
+      <c r="O59">
+        <v>-0.196585169175</v>
+      </c>
+      <c r="P59">
+        <v>-0.6771266938249999</v>
+      </c>
+      <c r="Q59">
+        <v>-0.485126693825</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.250160186413182</v>
+      </c>
+      <c r="T59">
+        <v>2.396680883021804</v>
+      </c>
+      <c r="U59">
+        <v>0.1837</v>
+      </c>
+      <c r="V59">
+        <v>0.06992913972597257</v>
+      </c>
+      <c r="W59">
+        <v>0.1708540170323389</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.3107961765598781</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.2066996698661014</v>
+      </c>
+      <c r="C60">
+        <v>-0.206037857370367</v>
+      </c>
+      <c r="D60">
+        <v>6.615022142629632</v>
+      </c>
+      <c r="E60">
+        <v>6.115059999999999</v>
+      </c>
+      <c r="F60">
+        <v>7.022059999999999</v>
+      </c>
+      <c r="G60">
+        <v>0.201</v>
+      </c>
+      <c r="H60">
+        <v>11.2</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.586</v>
+      </c>
+      <c r="K60">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L60">
+        <v>0.394</v>
+      </c>
+      <c r="M60">
+        <v>1.289952422</v>
+      </c>
+      <c r="N60">
+        <v>-0.8959524219999998</v>
+      </c>
+      <c r="O60">
+        <v>-0.20158929495</v>
+      </c>
+      <c r="P60">
+        <v>-0.6943631270499998</v>
+      </c>
+      <c r="Q60">
+        <v>-0.5023631270499999</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.2558949527563529</v>
+      </c>
+      <c r="T60">
+        <v>2.453744713569942</v>
+      </c>
+      <c r="U60">
+        <v>0.1837</v>
+      </c>
+      <c r="V60">
+        <v>0.06872346490311099</v>
+      </c>
+      <c r="W60">
+        <v>0.1710754994972985</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.3054376217916044</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.2084436698661014</v>
+      </c>
+      <c r="C61">
+        <v>-0.3850388909026048</v>
+      </c>
+      <c r="D61">
+        <v>6.557091109097395</v>
+      </c>
+      <c r="E61">
+        <v>6.236129999999999</v>
+      </c>
+      <c r="F61">
+        <v>7.143129999999999</v>
+      </c>
+      <c r="G61">
+        <v>0.201</v>
+      </c>
+      <c r="H61">
+        <v>11.2</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.586</v>
+      </c>
+      <c r="K61">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L61">
+        <v>0.394</v>
+      </c>
+      <c r="M61">
+        <v>1.312192981</v>
+      </c>
+      <c r="N61">
+        <v>-0.9181929809999999</v>
+      </c>
+      <c r="O61">
+        <v>-0.206593420725</v>
+      </c>
+      <c r="P61">
+        <v>-0.7115995602749999</v>
+      </c>
+      <c r="Q61">
+        <v>-0.519599560275</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.2619094637991908</v>
+      </c>
+      <c r="T61">
+        <v>2.513592145608234</v>
+      </c>
+      <c r="U61">
+        <v>0.1837</v>
+      </c>
+      <c r="V61">
+        <v>0.06755866041322775</v>
+      </c>
+      <c r="W61">
+        <v>0.1712894740820901</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.3002607129476789</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.2101876698661014</v>
+      </c>
+      <c r="C62">
+        <v>-0.5630340715365794</v>
+      </c>
+      <c r="D62">
+        <v>6.50016592846342</v>
+      </c>
+      <c r="E62">
+        <v>6.357199999999999</v>
+      </c>
+      <c r="F62">
+        <v>7.264199999999999</v>
+      </c>
+      <c r="G62">
+        <v>0.201</v>
+      </c>
+      <c r="H62">
+        <v>11.2</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.586</v>
+      </c>
+      <c r="K62">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L62">
+        <v>0.394</v>
+      </c>
+      <c r="M62">
+        <v>1.33443354</v>
+      </c>
+      <c r="N62">
+        <v>-0.9404335399999998</v>
+      </c>
+      <c r="O62">
+        <v>-0.2115975465</v>
+      </c>
+      <c r="P62">
+        <v>-0.7288359934999998</v>
+      </c>
+      <c r="Q62">
+        <v>-0.5368359934999999</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.2682247003941706</v>
+      </c>
+      <c r="T62">
+        <v>2.576431949248439</v>
+      </c>
+      <c r="U62">
+        <v>0.1837</v>
+      </c>
+      <c r="V62">
+        <v>0.06643268273967395</v>
+      </c>
+      <c r="W62">
+        <v>0.1714963161807219</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.2952563677318842</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.2119316698661014</v>
+      </c>
+      <c r="C63">
+        <v>-0.7400493706437299</v>
+      </c>
+      <c r="D63">
+        <v>6.44422062935627</v>
+      </c>
+      <c r="E63">
+        <v>6.478269999999999</v>
+      </c>
+      <c r="F63">
+        <v>7.385269999999999</v>
+      </c>
+      <c r="G63">
+        <v>0.201</v>
+      </c>
+      <c r="H63">
+        <v>11.2</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.586</v>
+      </c>
+      <c r="K63">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L63">
+        <v>0.394</v>
+      </c>
+      <c r="M63">
+        <v>1.356674099</v>
+      </c>
+      <c r="N63">
+        <v>-0.9626740989999999</v>
+      </c>
+      <c r="O63">
+        <v>-0.216601672275</v>
+      </c>
+      <c r="P63">
+        <v>-0.7460724267249998</v>
+      </c>
+      <c r="Q63">
+        <v>-0.5540724267249999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2748637952760724</v>
+      </c>
+      <c r="T63">
+        <v>2.642494306921476</v>
+      </c>
+      <c r="U63">
+        <v>0.1837</v>
+      </c>
+      <c r="V63">
+        <v>0.06534362236689242</v>
+      </c>
+      <c r="W63">
+        <v>0.1716963765712019</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.2904160994084107</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.2136756698661014</v>
+      </c>
+      <c r="C64">
+        <v>-0.9161098731089234</v>
+      </c>
+      <c r="D64">
+        <v>6.389230126891077</v>
+      </c>
+      <c r="E64">
+        <v>6.59934</v>
+      </c>
+      <c r="F64">
+        <v>7.50634</v>
+      </c>
+      <c r="G64">
+        <v>0.201</v>
+      </c>
+      <c r="H64">
+        <v>11.2</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.586</v>
+      </c>
+      <c r="K64">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L64">
+        <v>0.394</v>
+      </c>
+      <c r="M64">
+        <v>1.378914658</v>
+      </c>
+      <c r="N64">
+        <v>-0.984914658</v>
+      </c>
+      <c r="O64">
+        <v>-0.22160579805</v>
+      </c>
+      <c r="P64">
+        <v>-0.76330885995</v>
+      </c>
+      <c r="Q64">
+        <v>-0.57130885995</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2818523162043902</v>
+      </c>
+      <c r="T64">
+        <v>2.712033630787832</v>
+      </c>
+      <c r="U64">
+        <v>0.1837</v>
+      </c>
+      <c r="V64">
+        <v>0.06428969297387802</v>
+      </c>
+      <c r="W64">
+        <v>0.1718899834006986</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.2857319687727912</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.2154196698661014</v>
+      </c>
+      <c r="C65">
+        <v>-1.091239814833729</v>
+      </c>
+      <c r="D65">
+        <v>6.335170185166271</v>
+      </c>
+      <c r="E65">
+        <v>6.720409999999999</v>
+      </c>
+      <c r="F65">
+        <v>7.627409999999999</v>
+      </c>
+      <c r="G65">
+        <v>0.201</v>
+      </c>
+      <c r="H65">
+        <v>11.2</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.586</v>
+      </c>
+      <c r="K65">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L65">
+        <v>0.394</v>
+      </c>
+      <c r="M65">
+        <v>1.401155217</v>
+      </c>
+      <c r="N65">
+        <v>-1.007155217</v>
+      </c>
+      <c r="O65">
+        <v>-0.2266099238249999</v>
+      </c>
+      <c r="P65">
+        <v>-0.7805452931749999</v>
+      </c>
+      <c r="Q65">
+        <v>-0.5885452931749999</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2892185950207249</v>
+      </c>
+      <c r="T65">
+        <v>2.78533183702534</v>
+      </c>
+      <c r="U65">
+        <v>0.1837</v>
+      </c>
+      <c r="V65">
+        <v>0.06326922165683234</v>
+      </c>
+      <c r="W65">
+        <v>0.1720774439816399</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.2811965406970327</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.2171636698661014</v>
+      </c>
+      <c r="C66">
+        <v>-1.265462618351763</v>
+      </c>
+      <c r="D66">
+        <v>6.282017381648237</v>
+      </c>
+      <c r="E66">
+        <v>6.84148</v>
+      </c>
+      <c r="F66">
+        <v>7.74848</v>
+      </c>
+      <c r="G66">
+        <v>0.201</v>
+      </c>
+      <c r="H66">
+        <v>11.2</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.586</v>
+      </c>
+      <c r="K66">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L66">
+        <v>0.394</v>
+      </c>
+      <c r="M66">
+        <v>1.423395776</v>
+      </c>
+      <c r="N66">
+        <v>-1.029395776</v>
+      </c>
+      <c r="O66">
+        <v>-0.2316140496</v>
+      </c>
+      <c r="P66">
+        <v>-0.7977817263999999</v>
+      </c>
+      <c r="Q66">
+        <v>-0.6057817263999999</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2969941115490785</v>
+      </c>
+      <c r="T66">
+        <v>2.8627021658316</v>
+      </c>
+      <c r="U66">
+        <v>0.1837</v>
+      </c>
+      <c r="V66">
+        <v>0.06228064006844432</v>
+      </c>
+      <c r="W66">
+        <v>0.1722590464194268</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.2768028447486415</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.2189076698661014</v>
+      </c>
+      <c r="C67">
+        <v>-1.43880092666602</v>
+      </c>
+      <c r="D67">
+        <v>6.229749073333981</v>
+      </c>
+      <c r="E67">
+        <v>6.96255</v>
+      </c>
+      <c r="F67">
+        <v>7.86955</v>
+      </c>
+      <c r="G67">
+        <v>0.201</v>
+      </c>
+      <c r="H67">
+        <v>11.2</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.586</v>
+      </c>
+      <c r="K67">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L67">
+        <v>0.394</v>
+      </c>
+      <c r="M67">
+        <v>1.445636335</v>
+      </c>
+      <c r="N67">
+        <v>-1.051636335</v>
+      </c>
+      <c r="O67">
+        <v>-0.236618175375</v>
+      </c>
+      <c r="P67">
+        <v>-0.815018159625</v>
+      </c>
+      <c r="Q67">
+        <v>-0.6230181596250001</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.3052139433076236</v>
+      </c>
+      <c r="T67">
+        <v>2.944493656283932</v>
+      </c>
+      <c r="U67">
+        <v>0.1837</v>
+      </c>
+      <c r="V67">
+        <v>0.06132247637508364</v>
+      </c>
+      <c r="W67">
+        <v>0.1724350610898971</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.2725443394448163</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.2206516698661014</v>
+      </c>
+      <c r="C68">
+        <v>-1.611276635410965</v>
+      </c>
+      <c r="D68">
+        <v>6.178343364589035</v>
+      </c>
+      <c r="E68">
+        <v>7.08362</v>
+      </c>
+      <c r="F68">
+        <v>7.99062</v>
+      </c>
+      <c r="G68">
+        <v>0.201</v>
+      </c>
+      <c r="H68">
+        <v>11.2</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.586</v>
+      </c>
+      <c r="K68">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L68">
+        <v>0.394</v>
+      </c>
+      <c r="M68">
+        <v>1.467876894</v>
+      </c>
+      <c r="N68">
+        <v>-1.073876894</v>
+      </c>
+      <c r="O68">
+        <v>-0.24162230115</v>
+      </c>
+      <c r="P68">
+        <v>-0.83225459285</v>
+      </c>
+      <c r="Q68">
+        <v>-0.6402545928500001</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.3139172945813772</v>
+      </c>
+      <c r="T68">
+        <v>3.031096410880517</v>
+      </c>
+      <c r="U68">
+        <v>0.1837</v>
+      </c>
+      <c r="V68">
+        <v>0.06039334794515814</v>
+      </c>
+      <c r="W68">
+        <v>0.1726057419824744</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.2684148797562583</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.2223956698661014</v>
+      </c>
+      <c r="C69">
+        <v>-1.782910923435275</v>
+      </c>
+      <c r="D69">
+        <v>6.127779076564725</v>
+      </c>
+      <c r="E69">
+        <v>7.204689999999999</v>
+      </c>
+      <c r="F69">
+        <v>8.111689999999999</v>
+      </c>
+      <c r="G69">
+        <v>0.201</v>
+      </c>
+      <c r="H69">
+        <v>11.2</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.586</v>
+      </c>
+      <c r="K69">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L69">
+        <v>0.394</v>
+      </c>
+      <c r="M69">
+        <v>1.490117453</v>
+      </c>
+      <c r="N69">
+        <v>-1.096117453</v>
+      </c>
+      <c r="O69">
+        <v>-0.2466264269249999</v>
+      </c>
+      <c r="P69">
+        <v>-0.8494910260749998</v>
+      </c>
+      <c r="Q69">
+        <v>-0.6574910260749999</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.3231481216899038</v>
+      </c>
+      <c r="T69">
+        <v>3.122947817270836</v>
+      </c>
+      <c r="U69">
+        <v>0.1837</v>
+      </c>
+      <c r="V69">
+        <v>0.05949195469224534</v>
+      </c>
+      <c r="W69">
+        <v>0.1727713279230345</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.2644086875210905</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.2241396698661014</v>
+      </c>
+      <c r="C70">
+        <v>-1.953724281895052</v>
+      </c>
+      <c r="D70">
+        <v>6.07803571810495</v>
+      </c>
+      <c r="E70">
+        <v>7.325760000000001</v>
+      </c>
+      <c r="F70">
+        <v>8.232760000000001</v>
+      </c>
+      <c r="G70">
+        <v>0.201</v>
+      </c>
+      <c r="H70">
+        <v>11.2</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.586</v>
+      </c>
+      <c r="K70">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L70">
+        <v>0.394</v>
+      </c>
+      <c r="M70">
+        <v>1.512358012</v>
+      </c>
+      <c r="N70">
+        <v>-1.118358012</v>
+      </c>
+      <c r="O70">
+        <v>-0.2516305527000001</v>
+      </c>
+      <c r="P70">
+        <v>-0.8667274593000003</v>
+      </c>
+      <c r="Q70">
+        <v>-0.6747274593000003</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.3329558754927133</v>
+      </c>
+      <c r="T70">
+        <v>3.22053993656055</v>
+      </c>
+      <c r="U70">
+        <v>0.1837</v>
+      </c>
+      <c r="V70">
+        <v>0.05861707300559466</v>
+      </c>
+      <c r="W70">
+        <v>0.1729320436888723</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.2605203244693095</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.2258836698661014</v>
+      </c>
+      <c r="C71">
+        <v>-2.12373654194138</v>
+      </c>
+      <c r="D71">
+        <v>6.029093458058621</v>
+      </c>
+      <c r="E71">
+        <v>7.44683</v>
+      </c>
+      <c r="F71">
+        <v>8.35383</v>
+      </c>
+      <c r="G71">
+        <v>0.201</v>
+      </c>
+      <c r="H71">
+        <v>11.2</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.586</v>
+      </c>
+      <c r="K71">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L71">
+        <v>0.394</v>
+      </c>
+      <c r="M71">
+        <v>1.534598571</v>
+      </c>
+      <c r="N71">
+        <v>-1.140598571</v>
+      </c>
+      <c r="O71">
+        <v>-0.256634678475</v>
+      </c>
+      <c r="P71">
+        <v>-0.883963892525</v>
+      </c>
+      <c r="Q71">
+        <v>-0.691963892525</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.3433963876053815</v>
+      </c>
+      <c r="T71">
+        <v>3.324428321610891</v>
+      </c>
+      <c r="U71">
+        <v>0.1837</v>
+      </c>
+      <c r="V71">
+        <v>0.05776755020841213</v>
+      </c>
+      <c r="W71">
+        <v>0.1730881010267147</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.2567446675929429</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.2276276698661014</v>
+      </c>
+      <c r="C72">
+        <v>-2.292966901080938</v>
+      </c>
+      <c r="D72">
+        <v>5.980933098919063</v>
+      </c>
+      <c r="E72">
+        <v>7.5679</v>
+      </c>
+      <c r="F72">
+        <v>8.4749</v>
+      </c>
+      <c r="G72">
+        <v>0.201</v>
+      </c>
+      <c r="H72">
+        <v>11.2</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.586</v>
+      </c>
+      <c r="K72">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L72">
+        <v>0.394</v>
+      </c>
+      <c r="M72">
+        <v>1.55683913</v>
+      </c>
+      <c r="N72">
+        <v>-1.16283913</v>
+      </c>
+      <c r="O72">
+        <v>-0.26163880425</v>
+      </c>
+      <c r="P72">
+        <v>-0.9012003257500001</v>
+      </c>
+      <c r="Q72">
+        <v>-0.7092003257500001</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.3545329338588942</v>
+      </c>
+      <c r="T72">
+        <v>3.43524259899792</v>
+      </c>
+      <c r="U72">
+        <v>0.1837</v>
+      </c>
+      <c r="V72">
+        <v>0.05694229949114911</v>
+      </c>
+      <c r="W72">
+        <v>0.1732396995834759</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.2530768866273293</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.2293716698661014</v>
+      </c>
+      <c r="C73">
+        <v>-2.461433948283156</v>
+      </c>
+      <c r="D73">
+        <v>5.933536051716844</v>
+      </c>
+      <c r="E73">
+        <v>7.688969999999999</v>
+      </c>
+      <c r="F73">
+        <v>8.595969999999999</v>
+      </c>
+      <c r="G73">
+        <v>0.201</v>
+      </c>
+      <c r="H73">
+        <v>11.2</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.586</v>
+      </c>
+      <c r="K73">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L73">
+        <v>0.394</v>
+      </c>
+      <c r="M73">
+        <v>1.579079689</v>
+      </c>
+      <c r="N73">
+        <v>-1.185079689</v>
+      </c>
+      <c r="O73">
+        <v>-0.2666429300249999</v>
+      </c>
+      <c r="P73">
+        <v>-0.9184367589749998</v>
+      </c>
+      <c r="Q73">
+        <v>-0.7264367589749998</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.3664375177850628</v>
+      </c>
+      <c r="T73">
+        <v>3.553699240342675</v>
+      </c>
+      <c r="U73">
+        <v>0.1837</v>
+      </c>
+      <c r="V73">
+        <v>0.0561402952729639</v>
+      </c>
+      <c r="W73">
+        <v>0.1733870277583565</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.2495124234353951</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.2311156698661014</v>
+      </c>
+      <c r="C74">
+        <v>-2.629155687902998</v>
+      </c>
+      <c r="D74">
+        <v>5.886884312097002</v>
+      </c>
+      <c r="E74">
+        <v>7.810039999999999</v>
+      </c>
+      <c r="F74">
+        <v>8.717039999999999</v>
+      </c>
+      <c r="G74">
+        <v>0.201</v>
+      </c>
+      <c r="H74">
+        <v>11.2</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.586</v>
+      </c>
+      <c r="K74">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L74">
+        <v>0.394</v>
+      </c>
+      <c r="M74">
+        <v>1.601320248</v>
+      </c>
+      <c r="N74">
+        <v>-1.207320248</v>
+      </c>
+      <c r="O74">
+        <v>-0.2716470558</v>
+      </c>
+      <c r="P74">
+        <v>-0.9356731921999999</v>
+      </c>
+      <c r="Q74">
+        <v>-0.7436731921999999</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.3791924291345294</v>
+      </c>
+      <c r="T74">
+        <v>3.680617070354914</v>
+      </c>
+      <c r="U74">
+        <v>0.1837</v>
+      </c>
+      <c r="V74">
+        <v>0.05536056894972829</v>
+      </c>
+      <c r="W74">
+        <v>0.1735302634839349</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.2460469731099035</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.2328596698661014</v>
+      </c>
+      <c r="C75">
+        <v>-2.796149562483982</v>
+      </c>
+      <c r="D75">
+        <v>5.840960437516017</v>
+      </c>
+      <c r="E75">
+        <v>7.931109999999999</v>
+      </c>
+      <c r="F75">
+        <v>8.838109999999999</v>
+      </c>
+      <c r="G75">
+        <v>0.201</v>
+      </c>
+      <c r="H75">
+        <v>11.2</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.586</v>
+      </c>
+      <c r="K75">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L75">
+        <v>0.394</v>
+      </c>
+      <c r="M75">
+        <v>1.623560807</v>
+      </c>
+      <c r="N75">
+        <v>-1.229560807</v>
+      </c>
+      <c r="O75">
+        <v>-0.276651181575</v>
+      </c>
+      <c r="P75">
+        <v>-0.9529096254249999</v>
+      </c>
+      <c r="Q75">
+        <v>-0.760909625425</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.3928921487321045</v>
+      </c>
+      <c r="T75">
+        <v>3.816936221108799</v>
+      </c>
+      <c r="U75">
+        <v>0.1837</v>
+      </c>
+      <c r="V75">
+        <v>0.05460220499151284</v>
+      </c>
+      <c r="W75">
+        <v>0.1736695749430591</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.2426764666289459</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.2346036698661014</v>
+      </c>
+      <c r="C76">
+        <v>-2.962432474502158</v>
+      </c>
+      <c r="D76">
+        <v>5.795747525497842</v>
+      </c>
+      <c r="E76">
+        <v>8.05218</v>
+      </c>
+      <c r="F76">
+        <v>8.95918</v>
+      </c>
+      <c r="G76">
+        <v>0.201</v>
+      </c>
+      <c r="H76">
+        <v>11.2</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.586</v>
+      </c>
+      <c r="K76">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L76">
+        <v>0.394</v>
+      </c>
+      <c r="M76">
+        <v>1.645801366</v>
+      </c>
+      <c r="N76">
+        <v>-1.251801366</v>
+      </c>
+      <c r="O76">
+        <v>-0.28165530735</v>
+      </c>
+      <c r="P76">
+        <v>-0.97014605865</v>
+      </c>
+      <c r="Q76">
+        <v>-0.7781460586500001</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.4076456929141086</v>
+      </c>
+      <c r="T76">
+        <v>3.963741460382214</v>
+      </c>
+      <c r="U76">
+        <v>0.1837</v>
+      </c>
+      <c r="V76">
+        <v>0.05386433735649239</v>
+      </c>
+      <c r="W76">
+        <v>0.1738051212276124</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.2393970549177439</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.2363476698661014</v>
+      </c>
+      <c r="C77">
+        <v>-3.128020807107945</v>
+      </c>
+      <c r="D77">
+        <v>5.751229192892055</v>
+      </c>
+      <c r="E77">
+        <v>8.173249999999999</v>
+      </c>
+      <c r="F77">
+        <v>9.080249999999999</v>
+      </c>
+      <c r="G77">
+        <v>0.201</v>
+      </c>
+      <c r="H77">
+        <v>11.2</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.586</v>
+      </c>
+      <c r="K77">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L77">
+        <v>0.394</v>
+      </c>
+      <c r="M77">
+        <v>1.668041925</v>
+      </c>
+      <c r="N77">
+        <v>-1.274041925</v>
+      </c>
+      <c r="O77">
+        <v>-0.286659433125</v>
+      </c>
+      <c r="P77">
+        <v>-0.987382491875</v>
+      </c>
+      <c r="Q77">
+        <v>-0.7953824918750001</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.4235795206306729</v>
+      </c>
+      <c r="T77">
+        <v>4.122291118797503</v>
+      </c>
+      <c r="U77">
+        <v>0.1837</v>
+      </c>
+      <c r="V77">
+        <v>0.05314614619173916</v>
+      </c>
+      <c r="W77">
+        <v>0.1739370529445775</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.2362050941855073</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.2380916698661014</v>
+      </c>
+      <c r="C78">
+        <v>-3.292930443919347</v>
+      </c>
+      <c r="D78">
+        <v>5.707389556080653</v>
+      </c>
+      <c r="E78">
+        <v>8.294319999999999</v>
+      </c>
+      <c r="F78">
+        <v>9.201319999999999</v>
+      </c>
+      <c r="G78">
+        <v>0.201</v>
+      </c>
+      <c r="H78">
+        <v>11.2</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.586</v>
+      </c>
+      <c r="K78">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L78">
+        <v>0.394</v>
+      </c>
+      <c r="M78">
+        <v>1.690282484</v>
+      </c>
+      <c r="N78">
+        <v>-1.296282484</v>
+      </c>
+      <c r="O78">
+        <v>-0.2916635589</v>
+      </c>
+      <c r="P78">
+        <v>-1.0046189251</v>
+      </c>
+      <c r="Q78">
+        <v>-0.8126189251</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.4408411673236178</v>
+      </c>
+      <c r="T78">
+        <v>4.2940532487474</v>
+      </c>
+      <c r="U78">
+        <v>0.1837</v>
+      </c>
+      <c r="V78">
+        <v>0.05244685479447943</v>
+      </c>
+      <c r="W78">
+        <v>0.1740655127742541</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.2330971324199087</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.2398356698661014</v>
+      </c>
+      <c r="C79">
+        <v>-3.457176787916724</v>
+      </c>
+      <c r="D79">
+        <v>5.664213212083276</v>
+      </c>
+      <c r="E79">
+        <v>8.41539</v>
+      </c>
+      <c r="F79">
+        <v>9.32239</v>
+      </c>
+      <c r="G79">
+        <v>0.201</v>
+      </c>
+      <c r="H79">
+        <v>11.2</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.586</v>
+      </c>
+      <c r="K79">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L79">
+        <v>0.394</v>
+      </c>
+      <c r="M79">
+        <v>1.712523043</v>
+      </c>
+      <c r="N79">
+        <v>-1.318523043</v>
+      </c>
+      <c r="O79">
+        <v>-0.296667684675</v>
+      </c>
+      <c r="P79">
+        <v>-1.021855358325</v>
+      </c>
+      <c r="Q79">
+        <v>-0.8298553583249999</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.4596038267724707</v>
+      </c>
+      <c r="T79">
+        <v>4.480751216084244</v>
+      </c>
+      <c r="U79">
+        <v>0.1837</v>
+      </c>
+      <c r="V79">
+        <v>0.05176572681013555</v>
+      </c>
+      <c r="W79">
+        <v>0.1741906359849781</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.2300698969339358</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.2415796698661014</v>
+      </c>
+      <c r="C80">
+        <v>-3.620774779486402</v>
+      </c>
+      <c r="D80">
+        <v>5.621685220513599</v>
+      </c>
+      <c r="E80">
+        <v>8.53646</v>
+      </c>
+      <c r="F80">
+        <v>9.44346</v>
+      </c>
+      <c r="G80">
+        <v>0.201</v>
+      </c>
+      <c r="H80">
+        <v>11.2</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.586</v>
+      </c>
+      <c r="K80">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L80">
+        <v>0.394</v>
+      </c>
+      <c r="M80">
+        <v>1.734763602</v>
+      </c>
+      <c r="N80">
+        <v>-1.340763602</v>
+      </c>
+      <c r="O80">
+        <v>-0.30167181045</v>
+      </c>
+      <c r="P80">
+        <v>-1.03909179155</v>
+      </c>
+      <c r="Q80">
+        <v>-0.84709179155</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.4800721825348557</v>
+      </c>
+      <c r="T80">
+        <v>4.684421725906255</v>
+      </c>
+      <c r="U80">
+        <v>0.1837</v>
+      </c>
+      <c r="V80">
+        <v>0.05110206364590304</v>
+      </c>
+      <c r="W80">
+        <v>0.1743125509082476</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.2271202828706801</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.2433236698661014</v>
+      </c>
+      <c r="C81">
+        <v>-3.783738913657468</v>
+      </c>
+      <c r="D81">
+        <v>5.579791086342532</v>
+      </c>
+      <c r="E81">
+        <v>8.65753</v>
+      </c>
+      <c r="F81">
+        <v>9.56453</v>
+      </c>
+      <c r="G81">
+        <v>0.201</v>
+      </c>
+      <c r="H81">
+        <v>11.2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.586</v>
+      </c>
+      <c r="K81">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L81">
+        <v>0.394</v>
+      </c>
+      <c r="M81">
+        <v>1.757004161</v>
+      </c>
+      <c r="N81">
+        <v>-1.363004161</v>
+      </c>
+      <c r="O81">
+        <v>-0.3066759362250001</v>
+      </c>
+      <c r="P81">
+        <v>-1.056328224775</v>
+      </c>
+      <c r="Q81">
+        <v>-0.8643282247750002</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.5024899055127061</v>
+      </c>
+      <c r="T81">
+        <v>4.907489427139887</v>
+      </c>
+      <c r="U81">
+        <v>0.1837</v>
+      </c>
+      <c r="V81">
+        <v>0.05045520208076502</v>
+      </c>
+      <c r="W81">
+        <v>0.1744313793777635</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.2242453425811778</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.2450676698661014</v>
+      </c>
+      <c r="C82">
+        <v>-3.946083256573561</v>
+      </c>
+      <c r="D82">
+        <v>5.53851674342644</v>
+      </c>
+      <c r="E82">
+        <v>8.778600000000001</v>
+      </c>
+      <c r="F82">
+        <v>9.685600000000001</v>
+      </c>
+      <c r="G82">
+        <v>0.201</v>
+      </c>
+      <c r="H82">
+        <v>11.2</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.586</v>
+      </c>
+      <c r="K82">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L82">
+        <v>0.394</v>
+      </c>
+      <c r="M82">
+        <v>1.77924472</v>
+      </c>
+      <c r="N82">
+        <v>-1.38524472</v>
+      </c>
+      <c r="O82">
+        <v>-0.311680062</v>
+      </c>
+      <c r="P82">
+        <v>-1.073564658</v>
+      </c>
+      <c r="Q82">
+        <v>-0.8815646580000003</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.5271494007883414</v>
+      </c>
+      <c r="T82">
+        <v>5.15286389849688</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.04982451205475546</v>
+      </c>
+      <c r="W82">
+        <v>0.1745472371355414</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.2214422757989131</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.2468116698661014</v>
+      </c>
+      <c r="C83">
+        <v>-4.107821461238963</v>
+      </c>
+      <c r="D83">
+        <v>5.497848538761038</v>
+      </c>
+      <c r="E83">
+        <v>8.89967</v>
+      </c>
+      <c r="F83">
+        <v>9.80667</v>
+      </c>
+      <c r="G83">
+        <v>0.201</v>
+      </c>
+      <c r="H83">
+        <v>11.2</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.586</v>
+      </c>
+      <c r="K83">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L83">
+        <v>0.394</v>
+      </c>
+      <c r="M83">
+        <v>1.801485279</v>
+      </c>
+      <c r="N83">
+        <v>-1.407485279</v>
+      </c>
+      <c r="O83">
+        <v>-0.316684187775</v>
+      </c>
+      <c r="P83">
+        <v>-1.090801091225</v>
+      </c>
+      <c r="Q83">
+        <v>-0.898801091225</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.5544046324087805</v>
+      </c>
+      <c r="T83">
+        <v>5.424067261575664</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.04920939462198071</v>
+      </c>
+      <c r="W83">
+        <v>0.1746602342079421</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.2187084205421365</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.2485556698661014</v>
+      </c>
+      <c r="C84">
+        <v>-4.268966782576028</v>
+      </c>
+      <c r="D84">
+        <v>5.457773217423973</v>
+      </c>
+      <c r="E84">
+        <v>9.02074</v>
+      </c>
+      <c r="F84">
+        <v>9.92774</v>
+      </c>
+      <c r="G84">
+        <v>0.201</v>
+      </c>
+      <c r="H84">
+        <v>11.2</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.586</v>
+      </c>
+      <c r="K84">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L84">
+        <v>0.394</v>
+      </c>
+      <c r="M84">
+        <v>1.823725838</v>
+      </c>
+      <c r="N84">
+        <v>-1.429725838</v>
+      </c>
+      <c r="O84">
+        <v>-0.32168831355</v>
+      </c>
+      <c r="P84">
+        <v>-1.10803752445</v>
+      </c>
+      <c r="Q84">
+        <v>-0.9160375244500001</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.584688223098157</v>
+      </c>
+      <c r="T84">
+        <v>5.725404331663201</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.04860928005341996</v>
+      </c>
+      <c r="W84">
+        <v>0.1747704752541868</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.2160412446818666</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.2502996698661014</v>
+      </c>
+      <c r="C85">
+        <v>-4.429532091828841</v>
+      </c>
+      <c r="D85">
+        <v>5.418277908171159</v>
+      </c>
+      <c r="E85">
+        <v>9.14181</v>
+      </c>
+      <c r="F85">
+        <v>10.04881</v>
+      </c>
+      <c r="G85">
+        <v>0.201</v>
+      </c>
+      <c r="H85">
+        <v>11.2</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.586</v>
+      </c>
+      <c r="K85">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L85">
+        <v>0.394</v>
+      </c>
+      <c r="M85">
+        <v>1.845966397</v>
+      </c>
+      <c r="N85">
+        <v>-1.451966397</v>
+      </c>
+      <c r="O85">
+        <v>-0.326692439325</v>
+      </c>
+      <c r="P85">
+        <v>-1.125273957675</v>
+      </c>
+      <c r="Q85">
+        <v>-0.9332739576750002</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.6185345891627547</v>
+      </c>
+      <c r="T85">
+        <v>6.062192821761037</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.04802362607687274</v>
+      </c>
+      <c r="W85">
+        <v>0.1748780598896785</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.2134383381194344</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2520436698661014</v>
+      </c>
+      <c r="C86">
+        <v>-4.589529890345944</v>
+      </c>
+      <c r="D86">
+        <v>5.379350109654055</v>
+      </c>
+      <c r="E86">
+        <v>9.262879999999999</v>
+      </c>
+      <c r="F86">
+        <v>10.16988</v>
+      </c>
+      <c r="G86">
+        <v>0.201</v>
+      </c>
+      <c r="H86">
+        <v>11.2</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.586</v>
+      </c>
+      <c r="K86">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L86">
+        <v>0.394</v>
+      </c>
+      <c r="M86">
+        <v>1.868206956</v>
+      </c>
+      <c r="N86">
+        <v>-1.474206956</v>
+      </c>
+      <c r="O86">
+        <v>-0.3316965651</v>
+      </c>
+      <c r="P86">
+        <v>-1.1425103909</v>
+      </c>
+      <c r="Q86">
+        <v>-0.9505103908999999</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.6566117509854265</v>
+      </c>
+      <c r="T86">
+        <v>6.441079873121098</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.04745191624262425</v>
+      </c>
+      <c r="W86">
+        <v>0.1749830829862299</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.2108974055227745</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2537876698661014</v>
+      </c>
+      <c r="C87">
+        <v>-4.748972322773211</v>
+      </c>
+      <c r="D87">
+        <v>5.340977677226788</v>
+      </c>
+      <c r="E87">
+        <v>9.383949999999999</v>
+      </c>
+      <c r="F87">
+        <v>10.29095</v>
+      </c>
+      <c r="G87">
+        <v>0.201</v>
+      </c>
+      <c r="H87">
+        <v>11.2</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.586</v>
+      </c>
+      <c r="K87">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L87">
+        <v>0.394</v>
+      </c>
+      <c r="M87">
+        <v>1.890447515</v>
+      </c>
+      <c r="N87">
+        <v>-1.496447515</v>
+      </c>
+      <c r="O87">
+        <v>-0.336700690875</v>
+      </c>
+      <c r="P87">
+        <v>-1.159746824125</v>
+      </c>
+      <c r="Q87">
+        <v>-0.967746824125</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.6997658677177883</v>
+      </c>
+      <c r="T87">
+        <v>6.870485197995839</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.04689365840447574</v>
+      </c>
+      <c r="W87">
+        <v>0.1750856349510978</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.2084162595754476</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2555316698661014</v>
+      </c>
+      <c r="C88">
+        <v>-4.907871189686021</v>
+      </c>
+      <c r="D88">
+        <v>5.30314881031398</v>
+      </c>
+      <c r="E88">
+        <v>9.50502</v>
+      </c>
+      <c r="F88">
+        <v>10.41202</v>
+      </c>
+      <c r="G88">
+        <v>0.201</v>
+      </c>
+      <c r="H88">
+        <v>11.2</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.586</v>
+      </c>
+      <c r="K88">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L88">
+        <v>0.394</v>
+      </c>
+      <c r="M88">
+        <v>1.912688074</v>
+      </c>
+      <c r="N88">
+        <v>-1.518688074</v>
+      </c>
+      <c r="O88">
+        <v>-0.34170481665</v>
+      </c>
+      <c r="P88">
+        <v>-1.17698325735</v>
+      </c>
+      <c r="Q88">
+        <v>-0.9849832573499999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.7490848582690589</v>
+      </c>
+      <c r="T88">
+        <v>7.361234140709827</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.04634838330674926</v>
+      </c>
+      <c r="W88">
+        <v>0.1751858019865501</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.2059928146966634</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2572756698661014</v>
+      </c>
+      <c r="C89">
+        <v>-5.066237959688423</v>
+      </c>
+      <c r="D89">
+        <v>5.265852040311577</v>
+      </c>
+      <c r="E89">
+        <v>9.62609</v>
+      </c>
+      <c r="F89">
+        <v>10.53309</v>
+      </c>
+      <c r="G89">
+        <v>0.201</v>
+      </c>
+      <c r="H89">
+        <v>11.2</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.586</v>
+      </c>
+      <c r="K89">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L89">
+        <v>0.394</v>
+      </c>
+      <c r="M89">
+        <v>1.934928633</v>
+      </c>
+      <c r="N89">
+        <v>-1.540928633</v>
+      </c>
+      <c r="O89">
+        <v>-0.346708942425</v>
+      </c>
+      <c r="P89">
+        <v>-1.194219690575</v>
+      </c>
+      <c r="Q89">
+        <v>-1.002219690575</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.8059913858282173</v>
+      </c>
+      <c r="T89">
+        <v>7.92748292076443</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.04581564326874065</v>
+      </c>
+      <c r="W89">
+        <v>0.1752836663315323</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.2036250811944028</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2590196698661014</v>
+      </c>
+      <c r="C90">
+        <v>-5.224083781005293</v>
+      </c>
+      <c r="D90">
+        <v>5.229076218994707</v>
+      </c>
+      <c r="E90">
+        <v>9.747159999999999</v>
+      </c>
+      <c r="F90">
+        <v>10.65416</v>
+      </c>
+      <c r="G90">
+        <v>0.201</v>
+      </c>
+      <c r="H90">
+        <v>11.2</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.586</v>
+      </c>
+      <c r="K90">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L90">
+        <v>0.394</v>
+      </c>
+      <c r="M90">
+        <v>1.957169192</v>
+      </c>
+      <c r="N90">
+        <v>-1.563169192</v>
+      </c>
+      <c r="O90">
+        <v>-0.3517130681999999</v>
+      </c>
+      <c r="P90">
+        <v>-1.2114561238</v>
+      </c>
+      <c r="Q90">
+        <v>-1.0194561238</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.8723823346472356</v>
+      </c>
+      <c r="T90">
+        <v>8.588106497494801</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.04529501095886861</v>
+      </c>
+      <c r="W90">
+        <v>0.1753793064868558</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.2013111598171938</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2607636698661014</v>
+      </c>
+      <c r="C91">
+        <v>-5.381419492592109</v>
+      </c>
+      <c r="D91">
+        <v>5.192810507407891</v>
+      </c>
+      <c r="E91">
+        <v>9.868229999999999</v>
+      </c>
+      <c r="F91">
+        <v>10.77523</v>
+      </c>
+      <c r="G91">
+        <v>0.201</v>
+      </c>
+      <c r="H91">
+        <v>11.2</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.586</v>
+      </c>
+      <c r="K91">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L91">
+        <v>0.394</v>
+      </c>
+      <c r="M91">
+        <v>1.979409751</v>
+      </c>
+      <c r="N91">
+        <v>-1.585409751</v>
+      </c>
+      <c r="O91">
+        <v>-0.356717193975</v>
+      </c>
+      <c r="P91">
+        <v>-1.228692557025</v>
+      </c>
+      <c r="Q91">
+        <v>-1.036692557025</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.9508443650697115</v>
+      </c>
+      <c r="T91">
+        <v>9.368843451812509</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.04478607825146559</v>
+      </c>
+      <c r="W91">
+        <v>0.1754727974252058</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.1990492366731803</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2625076698661014</v>
+      </c>
+      <c r="C92">
+        <v>-5.538255634785623</v>
+      </c>
+      <c r="D92">
+        <v>5.157044365214378</v>
+      </c>
+      <c r="E92">
+        <v>9.9893</v>
+      </c>
+      <c r="F92">
+        <v>10.8963</v>
+      </c>
+      <c r="G92">
+        <v>0.201</v>
+      </c>
+      <c r="H92">
+        <v>11.2</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.586</v>
+      </c>
+      <c r="K92">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L92">
+        <v>0.394</v>
+      </c>
+      <c r="M92">
+        <v>2.00165031</v>
+      </c>
+      <c r="N92">
+        <v>-1.60765031</v>
+      </c>
+      <c r="O92">
+        <v>-0.36172131975</v>
+      </c>
+      <c r="P92">
+        <v>-1.24592899025</v>
+      </c>
+      <c r="Q92">
+        <v>-1.05392899025</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>1.044998801576683</v>
+      </c>
+      <c r="T92">
+        <v>10.30572779699376</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.04428845515978263</v>
+      </c>
+      <c r="W92">
+        <v>0.1755642107871479</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.1968375784879228</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2642516698661014</v>
+      </c>
+      <c r="C93">
+        <v>-5.694602459517375</v>
+      </c>
+      <c r="D93">
+        <v>5.121767540482625</v>
+      </c>
+      <c r="E93">
+        <v>10.11037</v>
+      </c>
+      <c r="F93">
+        <v>11.01737</v>
+      </c>
+      <c r="G93">
+        <v>0.201</v>
+      </c>
+      <c r="H93">
+        <v>11.2</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.586</v>
+      </c>
+      <c r="K93">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L93">
+        <v>0.394</v>
+      </c>
+      <c r="M93">
+        <v>2.023890869</v>
+      </c>
+      <c r="N93">
+        <v>-1.629890869</v>
+      </c>
+      <c r="O93">
+        <v>-0.366725445525</v>
+      </c>
+      <c r="P93">
+        <v>-1.263165423475</v>
+      </c>
+      <c r="Q93">
+        <v>-1.071165423475</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>1.160076446196314</v>
+      </c>
+      <c r="T93">
+        <v>11.4508086633264</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.04380176883934546</v>
+      </c>
+      <c r="W93">
+        <v>0.1756536150642122</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.1946745281748687</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2659956698661015</v>
+      </c>
+      <c r="C94">
+        <v>-5.850469940110878</v>
+      </c>
+      <c r="D94">
+        <v>5.086970059889122</v>
+      </c>
+      <c r="E94">
+        <v>10.23144</v>
+      </c>
+      <c r="F94">
+        <v>11.13844</v>
+      </c>
+      <c r="G94">
+        <v>0.201</v>
+      </c>
+      <c r="H94">
+        <v>11.2</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.586</v>
+      </c>
+      <c r="K94">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L94">
+        <v>0.394</v>
+      </c>
+      <c r="M94">
+        <v>2.046131428</v>
+      </c>
+      <c r="N94">
+        <v>-1.652131428</v>
+      </c>
+      <c r="O94">
+        <v>-0.3717295713</v>
+      </c>
+      <c r="P94">
+        <v>-1.2804018567</v>
+      </c>
+      <c r="Q94">
+        <v>-1.0884018567</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>1.303923501970854</v>
+      </c>
+      <c r="T94">
+        <v>12.88215974624221</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.04332566265630911</v>
+      </c>
+      <c r="W94">
+        <v>0.175741075770036</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.1925585006947071</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2677396698661014</v>
+      </c>
+      <c r="C95">
+        <v>-6.005867780682117</v>
+      </c>
+      <c r="D95">
+        <v>5.052642219317884</v>
+      </c>
+      <c r="E95">
+        <v>10.35251</v>
+      </c>
+      <c r="F95">
+        <v>11.25951</v>
+      </c>
+      <c r="G95">
+        <v>0.201</v>
+      </c>
+      <c r="H95">
+        <v>11.2</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.586</v>
+      </c>
+      <c r="K95">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L95">
+        <v>0.394</v>
+      </c>
+      <c r="M95">
+        <v>2.068371987</v>
+      </c>
+      <c r="N95">
+        <v>-1.674371987</v>
+      </c>
+      <c r="O95">
+        <v>-0.376733697075</v>
+      </c>
+      <c r="P95">
+        <v>-1.297638289925</v>
+      </c>
+      <c r="Q95">
+        <v>-1.105638289925</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.488869716538119</v>
+      </c>
+      <c r="T95">
+        <v>14.72246828141967</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.04285979531591868</v>
+      </c>
+      <c r="W95">
+        <v>0.1758266556004657</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.1904879791818609</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2694836698661014</v>
+      </c>
+      <c r="C96">
+        <v>-6.160805425161975</v>
+      </c>
+      <c r="D96">
+        <v>5.018774574838026</v>
+      </c>
+      <c r="E96">
+        <v>10.47358</v>
+      </c>
+      <c r="F96">
+        <v>11.38058</v>
+      </c>
+      <c r="G96">
+        <v>0.201</v>
+      </c>
+      <c r="H96">
+        <v>11.2</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.586</v>
+      </c>
+      <c r="K96">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L96">
+        <v>0.394</v>
+      </c>
+      <c r="M96">
+        <v>2.090612546</v>
+      </c>
+      <c r="N96">
+        <v>-1.696612546</v>
+      </c>
+      <c r="O96">
+        <v>-0.38173782285</v>
+      </c>
+      <c r="P96">
+        <v>-1.31487472315</v>
+      </c>
+      <c r="Q96">
+        <v>-1.12287472315</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.735464669294473</v>
+      </c>
+      <c r="T96">
+        <v>17.17621299498962</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.0424038400466004</v>
+      </c>
+      <c r="W96">
+        <v>0.1759104145834395</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.188461511318224</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2712276698661014</v>
+      </c>
+      <c r="C97">
+        <v>-6.315292065958237</v>
+      </c>
+      <c r="D97">
+        <v>4.985357934041763</v>
+      </c>
+      <c r="E97">
+        <v>10.59465</v>
+      </c>
+      <c r="F97">
+        <v>11.50165</v>
+      </c>
+      <c r="G97">
+        <v>0.201</v>
+      </c>
+      <c r="H97">
+        <v>11.2</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.586</v>
+      </c>
+      <c r="K97">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L97">
+        <v>0.394</v>
+      </c>
+      <c r="M97">
+        <v>2.112853105</v>
+      </c>
+      <c r="N97">
+        <v>-1.718853105</v>
+      </c>
+      <c r="O97">
+        <v>-0.386741948625</v>
+      </c>
+      <c r="P97">
+        <v>-1.332111156375</v>
+      </c>
+      <c r="Q97">
+        <v>-1.140111156375</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>2.080697603153368</v>
+      </c>
+      <c r="T97">
+        <v>20.61145559398755</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.04195748383558354</v>
+      </c>
+      <c r="W97">
+        <v>0.1759924102194033</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.1864777059359269</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2729716698661014</v>
+      </c>
+      <c r="C98">
+        <v>-6.469336652273801</v>
+      </c>
+      <c r="D98">
+        <v>4.952383347726198</v>
+      </c>
+      <c r="E98">
+        <v>10.71572</v>
+      </c>
+      <c r="F98">
+        <v>11.62272</v>
+      </c>
+      <c r="G98">
+        <v>0.201</v>
+      </c>
+      <c r="H98">
+        <v>11.2</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.586</v>
+      </c>
+      <c r="K98">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L98">
+        <v>0.394</v>
+      </c>
+      <c r="M98">
+        <v>2.135093664</v>
+      </c>
+      <c r="N98">
+        <v>-1.741093664</v>
+      </c>
+      <c r="O98">
+        <v>-0.3917460743999999</v>
+      </c>
+      <c r="P98">
+        <v>-1.3493475896</v>
+      </c>
+      <c r="Q98">
+        <v>-1.1573475896</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>2.598547003941705</v>
+      </c>
+      <c r="T98">
+        <v>25.76431949248438</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.04152042671229622</v>
+      </c>
+      <c r="W98">
+        <v>0.1760726976129512</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.1845352298324276</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2747156698661014</v>
+      </c>
+      <c r="C99">
+        <v>-6.622947898096972</v>
+      </c>
+      <c r="D99">
+        <v>4.919842101903027</v>
+      </c>
+      <c r="E99">
+        <v>10.83679</v>
+      </c>
+      <c r="F99">
+        <v>11.74379</v>
+      </c>
+      <c r="G99">
+        <v>0.201</v>
+      </c>
+      <c r="H99">
+        <v>11.2</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.586</v>
+      </c>
+      <c r="K99">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L99">
+        <v>0.394</v>
+      </c>
+      <c r="M99">
+        <v>2.157334223</v>
+      </c>
+      <c r="N99">
+        <v>-1.763334223</v>
+      </c>
+      <c r="O99">
+        <v>-0.396750200175</v>
+      </c>
+      <c r="P99">
+        <v>-1.366584022825</v>
+      </c>
+      <c r="Q99">
+        <v>-1.174584022825</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>3.461629338588939</v>
+      </c>
+      <c r="T99">
+        <v>34.35242598997917</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.04109238107608698</v>
+      </c>
+      <c r="W99">
+        <v>0.1761513295963228</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.1826328047826089</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2764596698661014</v>
+      </c>
+      <c r="C100">
+        <v>-6.776134289878781</v>
+      </c>
+      <c r="D100">
+        <v>4.887725710121217</v>
+      </c>
+      <c r="E100">
+        <v>10.95786</v>
+      </c>
+      <c r="F100">
+        <v>11.86486</v>
+      </c>
+      <c r="G100">
+        <v>0.201</v>
+      </c>
+      <c r="H100">
+        <v>11.2</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.586</v>
+      </c>
+      <c r="K100">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L100">
+        <v>0.394</v>
+      </c>
+      <c r="M100">
+        <v>2.179574782</v>
+      </c>
+      <c r="N100">
+        <v>-1.785574781999999</v>
+      </c>
+      <c r="O100">
+        <v>-0.4017543259499999</v>
+      </c>
+      <c r="P100">
+        <v>-1.38382045605</v>
+      </c>
+      <c r="Q100">
+        <v>-1.19182045605</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>5.187794007883408</v>
+      </c>
+      <c r="T100">
+        <v>51.52863898496875</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.04067307106510651</v>
+      </c>
+      <c r="W100">
+        <v>0.1762283568453399</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.1807692047338068</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2782036698661014</v>
+      </c>
+      <c r="C101">
+        <v>-6.928904093911566</v>
+      </c>
+      <c r="D101">
+        <v>4.856025906088434</v>
+      </c>
+      <c r="E101">
+        <v>11.07893</v>
+      </c>
+      <c r="F101">
+        <v>11.98593</v>
+      </c>
+      <c r="G101">
+        <v>0.201</v>
+      </c>
+      <c r="H101">
+        <v>11.2</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.586</v>
+      </c>
+      <c r="K101">
+        <v>0.1919999999999999</v>
+      </c>
+      <c r="L101">
+        <v>0.394</v>
+      </c>
+      <c r="M101">
+        <v>2.201815341</v>
+      </c>
+      <c r="N101">
+        <v>-1.807815341</v>
+      </c>
+      <c r="O101">
+        <v>-0.406758451725</v>
+      </c>
+      <c r="P101">
+        <v>-1.401056889275</v>
+      </c>
+      <c r="Q101">
+        <v>-1.209056889275</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>10.36628801576682</v>
+      </c>
+      <c r="T101">
+        <v>103.0572779699375</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.04026223196343875</v>
+      </c>
+      <c r="W101">
+        <v>0.1763038279883163</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.1789432531708389</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
